--- a/public/stations.xlsx
+++ b/public/stations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandalalsivadas/Desktop/fuel-map-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04159734-999A-EB48-B783-B6BBEA04C5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B2BFEE-049B-E74E-BB54-1A1A838626E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3123,10 +3123,10 @@
         <v>67</v>
       </c>
       <c r="F41">
-        <v>10.9434605</v>
+        <v>10.9882831</v>
       </c>
       <c r="G41">
-        <v>75.938909499999994</v>
+        <v>75.906533199999998</v>
       </c>
       <c r="H41">
         <v>88</v>

--- a/public/stations.xlsx
+++ b/public/stations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandalalsivadas/Desktop/fuel-map-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B2BFEE-049B-E74E-BB54-1A1A838626E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1686E07C-39C9-F947-8377-150FD0790018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
+    <workbookView xWindow="4640" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="271">
   <si>
     <t>month</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>EMINENCE PETROLEUM</t>
+  </si>
+  <si>
+    <t>2025-07</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183:K363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7980,6 +7983,6233 @@
         <v>0</v>
       </c>
     </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>270</v>
+      </c>
+      <c r="B183">
+        <v>146267</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183">
+        <v>11.0512894</v>
+      </c>
+      <c r="G183">
+        <v>75.984570399999996</v>
+      </c>
+      <c r="H183">
+        <v>164</v>
+      </c>
+      <c r="I183">
+        <v>286</v>
+      </c>
+      <c r="J183">
+        <v>155</v>
+      </c>
+      <c r="K183">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184">
+        <v>215812</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184">
+        <v>11.121829999999999</v>
+      </c>
+      <c r="G184">
+        <v>75.846320000000006</v>
+      </c>
+      <c r="H184">
+        <v>100</v>
+      </c>
+      <c r="I184">
+        <v>68</v>
+      </c>
+      <c r="J184">
+        <v>96</v>
+      </c>
+      <c r="K184">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>270</v>
+      </c>
+      <c r="B185">
+        <v>116140</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185">
+        <v>10.886775399999999</v>
+      </c>
+      <c r="G185">
+        <v>76.072814100000002</v>
+      </c>
+      <c r="H185">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>112</v>
+      </c>
+      <c r="J185">
+        <v>72</v>
+      </c>
+      <c r="K185">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>270</v>
+      </c>
+      <c r="B186">
+        <v>230305</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186">
+        <v>10.970310400000001</v>
+      </c>
+      <c r="G186">
+        <v>75.965811099999996</v>
+      </c>
+      <c r="H186">
+        <v>106</v>
+      </c>
+      <c r="I186">
+        <v>110</v>
+      </c>
+      <c r="J186">
+        <v>68</v>
+      </c>
+      <c r="K186">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187">
+        <v>146264</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187">
+        <v>10.86345</v>
+      </c>
+      <c r="G187">
+        <v>75.978809999999996</v>
+      </c>
+      <c r="H187">
+        <v>56</v>
+      </c>
+      <c r="I187">
+        <v>52</v>
+      </c>
+      <c r="J187">
+        <v>56</v>
+      </c>
+      <c r="K187">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188">
+        <v>162956</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>11.0741104</v>
+      </c>
+      <c r="G188">
+        <v>75.903642500000004</v>
+      </c>
+      <c r="H188">
+        <v>199.07400000000001</v>
+      </c>
+      <c r="I188">
+        <v>193.76900000000001</v>
+      </c>
+      <c r="J188">
+        <v>176.17099999999999</v>
+      </c>
+      <c r="K188">
+        <v>186.107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>270</v>
+      </c>
+      <c r="B189">
+        <v>149639</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="1">
+        <v>10.967510000000001</v>
+      </c>
+      <c r="G189">
+        <v>75.884919999999994</v>
+      </c>
+      <c r="H189">
+        <v>68</v>
+      </c>
+      <c r="I189">
+        <v>64</v>
+      </c>
+      <c r="J189">
+        <v>84</v>
+      </c>
+      <c r="K189">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>270</v>
+      </c>
+      <c r="B190">
+        <v>189806</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190">
+        <v>10.780234</v>
+      </c>
+      <c r="G190">
+        <v>75.948831299999995</v>
+      </c>
+      <c r="H190">
+        <v>89</v>
+      </c>
+      <c r="I190">
+        <v>61</v>
+      </c>
+      <c r="J190">
+        <v>106</v>
+      </c>
+      <c r="K190">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191">
+        <v>143244</v>
+      </c>
+      <c r="C191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191">
+        <v>11.0424998</v>
+      </c>
+      <c r="G191">
+        <v>75.861438300000003</v>
+      </c>
+      <c r="H191">
+        <v>48</v>
+      </c>
+      <c r="I191">
+        <v>60</v>
+      </c>
+      <c r="J191">
+        <v>44</v>
+      </c>
+      <c r="K191">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192">
+        <v>233926</v>
+      </c>
+      <c r="C192" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" t="s">
+        <v>32</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192">
+        <v>11.1485197</v>
+      </c>
+      <c r="G192">
+        <v>75.902472700000004</v>
+      </c>
+      <c r="H192">
+        <v>88</v>
+      </c>
+      <c r="I192">
+        <v>92</v>
+      </c>
+      <c r="J192">
+        <v>76</v>
+      </c>
+      <c r="K192">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>270</v>
+      </c>
+      <c r="B193">
+        <v>219106</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193">
+        <v>11.13336</v>
+      </c>
+      <c r="G193">
+        <v>76.014229999999998</v>
+      </c>
+      <c r="H193">
+        <v>104</v>
+      </c>
+      <c r="I193">
+        <v>190</v>
+      </c>
+      <c r="J193">
+        <v>95</v>
+      </c>
+      <c r="K193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>270</v>
+      </c>
+      <c r="B194">
+        <v>162537</v>
+      </c>
+      <c r="C194" t="s">
+        <v>35</v>
+      </c>
+      <c r="D194" t="s">
+        <v>36</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>10.857688700000001</v>
+      </c>
+      <c r="G194">
+        <v>76.036559299999993</v>
+      </c>
+      <c r="H194">
+        <v>32</v>
+      </c>
+      <c r="I194">
+        <v>36</v>
+      </c>
+      <c r="J194">
+        <v>28</v>
+      </c>
+      <c r="K194">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>270</v>
+      </c>
+      <c r="B195">
+        <v>147927</v>
+      </c>
+      <c r="C195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195">
+        <v>10.999963299999999</v>
+      </c>
+      <c r="G195">
+        <v>75.996566299999998</v>
+      </c>
+      <c r="H195">
+        <v>209</v>
+      </c>
+      <c r="I195">
+        <v>249</v>
+      </c>
+      <c r="J195">
+        <v>185</v>
+      </c>
+      <c r="K195">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196">
+        <v>146933</v>
+      </c>
+      <c r="C196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196">
+        <v>10.93998</v>
+      </c>
+      <c r="G196">
+        <v>75.98066</v>
+      </c>
+      <c r="H196">
+        <v>136</v>
+      </c>
+      <c r="I196">
+        <v>128</v>
+      </c>
+      <c r="J196">
+        <v>132</v>
+      </c>
+      <c r="K196">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>270</v>
+      </c>
+      <c r="B197">
+        <v>116141</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>42</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>11.038625</v>
+      </c>
+      <c r="G197">
+        <v>75.937835000000007</v>
+      </c>
+      <c r="H197">
+        <v>130</v>
+      </c>
+      <c r="I197">
+        <v>110</v>
+      </c>
+      <c r="J197">
+        <v>165</v>
+      </c>
+      <c r="K197">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>270</v>
+      </c>
+      <c r="B198">
+        <v>172015</v>
+      </c>
+      <c r="C198" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" t="s">
+        <v>44</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198">
+        <v>10.93927</v>
+      </c>
+      <c r="G198">
+        <v>76.038839999999993</v>
+      </c>
+      <c r="H198">
+        <v>92</v>
+      </c>
+      <c r="I198">
+        <v>104</v>
+      </c>
+      <c r="J198">
+        <v>89</v>
+      </c>
+      <c r="K198">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>270</v>
+      </c>
+      <c r="B199">
+        <v>180272</v>
+      </c>
+      <c r="C199" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <v>10.702669999999999</v>
+      </c>
+      <c r="G199">
+        <v>75.982349999999997</v>
+      </c>
+      <c r="H199">
+        <v>100</v>
+      </c>
+      <c r="I199">
+        <v>68</v>
+      </c>
+      <c r="J199">
+        <v>104</v>
+      </c>
+      <c r="K199">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B200">
+        <v>116136</v>
+      </c>
+      <c r="C200" t="s">
+        <v>47</v>
+      </c>
+      <c r="D200" t="s">
+        <v>48</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>10.783401899999999</v>
+      </c>
+      <c r="G200">
+        <v>76.007835600000007</v>
+      </c>
+      <c r="H200">
+        <v>60</v>
+      </c>
+      <c r="I200">
+        <v>72</v>
+      </c>
+      <c r="J200">
+        <v>64</v>
+      </c>
+      <c r="K200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201">
+        <v>168865</v>
+      </c>
+      <c r="C201" t="s">
+        <v>49</v>
+      </c>
+      <c r="D201" t="s">
+        <v>50</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201">
+        <v>11.089875599999999</v>
+      </c>
+      <c r="G201">
+        <v>75.878524999999996</v>
+      </c>
+      <c r="H201">
+        <v>72</v>
+      </c>
+      <c r="I201">
+        <v>36</v>
+      </c>
+      <c r="J201">
+        <v>68</v>
+      </c>
+      <c r="K201">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>270</v>
+      </c>
+      <c r="B202">
+        <v>146265</v>
+      </c>
+      <c r="C202" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" t="s">
+        <v>52</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202">
+        <v>11.046684900000001</v>
+      </c>
+      <c r="G202">
+        <v>75.911017200000003</v>
+      </c>
+      <c r="H202">
+        <v>96</v>
+      </c>
+      <c r="I202">
+        <v>96</v>
+      </c>
+      <c r="J202">
+        <v>108</v>
+      </c>
+      <c r="K202">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>270</v>
+      </c>
+      <c r="B203">
+        <v>254121</v>
+      </c>
+      <c r="C203" t="s">
+        <v>53</v>
+      </c>
+      <c r="D203" t="s">
+        <v>54</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203">
+        <v>11.119442400000001</v>
+      </c>
+      <c r="G203">
+        <v>75.893238199999999</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
+      </c>
+      <c r="I203">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>270</v>
+      </c>
+      <c r="B204">
+        <v>182026</v>
+      </c>
+      <c r="C204" t="s">
+        <v>55</v>
+      </c>
+      <c r="D204" t="s">
+        <v>56</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204">
+        <v>10.9037746</v>
+      </c>
+      <c r="G204">
+        <v>75.921911300000005</v>
+      </c>
+      <c r="H204">
+        <v>108</v>
+      </c>
+      <c r="I204">
+        <v>72</v>
+      </c>
+      <c r="J204">
+        <v>120</v>
+      </c>
+      <c r="K204">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>270</v>
+      </c>
+      <c r="B205">
+        <v>184424</v>
+      </c>
+      <c r="C205" t="s">
+        <v>57</v>
+      </c>
+      <c r="D205" t="s">
+        <v>58</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205">
+        <v>10.8715946</v>
+      </c>
+      <c r="G205">
+        <v>75.933853200000001</v>
+      </c>
+      <c r="H205">
+        <v>116</v>
+      </c>
+      <c r="I205">
+        <v>76</v>
+      </c>
+      <c r="J205">
+        <v>120</v>
+      </c>
+      <c r="K205">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>270</v>
+      </c>
+      <c r="B206">
+        <v>258634</v>
+      </c>
+      <c r="C206" t="s">
+        <v>59</v>
+      </c>
+      <c r="D206" t="s">
+        <v>60</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207">
+        <v>258702</v>
+      </c>
+      <c r="C207" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" t="s">
+        <v>62</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208">
+        <v>259357</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208">
+        <v>11.0206781</v>
+      </c>
+      <c r="G208">
+        <v>76.022827399999997</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>270</v>
+      </c>
+      <c r="B209">
+        <v>41070555</v>
+      </c>
+      <c r="C209" t="s">
+        <v>65</v>
+      </c>
+      <c r="D209" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209" t="s">
+        <v>67</v>
+      </c>
+      <c r="F209">
+        <v>10.913512600000001</v>
+      </c>
+      <c r="G209">
+        <v>76.045402300000006</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>270</v>
+      </c>
+      <c r="B210">
+        <v>41028327</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" t="s">
+        <v>67</v>
+      </c>
+      <c r="F210">
+        <v>11.0550999</v>
+      </c>
+      <c r="G210">
+        <v>75.978066400000003</v>
+      </c>
+      <c r="H210">
+        <v>56</v>
+      </c>
+      <c r="I210">
+        <v>40</v>
+      </c>
+      <c r="J210">
+        <v>48</v>
+      </c>
+      <c r="K210">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211">
+        <v>41006140</v>
+      </c>
+      <c r="C211" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>67</v>
+      </c>
+      <c r="F211">
+        <v>11.0512157</v>
+      </c>
+      <c r="G211">
+        <v>75.988495799999995</v>
+      </c>
+      <c r="H211">
+        <v>114</v>
+      </c>
+      <c r="I211">
+        <v>200</v>
+      </c>
+      <c r="J211">
+        <v>100.5</v>
+      </c>
+      <c r="K211">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212">
+        <v>41072566</v>
+      </c>
+      <c r="C212" t="s">
+        <v>71</v>
+      </c>
+      <c r="D212" t="s">
+        <v>72</v>
+      </c>
+      <c r="E212" t="s">
+        <v>67</v>
+      </c>
+      <c r="F212">
+        <v>10.9589216</v>
+      </c>
+      <c r="G212">
+        <v>75.895892900000007</v>
+      </c>
+      <c r="H212">
+        <v>85</v>
+      </c>
+      <c r="I212">
+        <v>65</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>270</v>
+      </c>
+      <c r="B213">
+        <v>41028341</v>
+      </c>
+      <c r="C213" t="s">
+        <v>73</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" t="s">
+        <v>67</v>
+      </c>
+      <c r="F213">
+        <v>11.10483</v>
+      </c>
+      <c r="G213">
+        <v>75.838500999999994</v>
+      </c>
+      <c r="H213">
+        <v>78</v>
+      </c>
+      <c r="I213">
+        <v>66</v>
+      </c>
+      <c r="J213">
+        <v>92</v>
+      </c>
+      <c r="K213">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214">
+        <v>41074059</v>
+      </c>
+      <c r="C214" t="s">
+        <v>74</v>
+      </c>
+      <c r="D214" t="s">
+        <v>75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>67</v>
+      </c>
+      <c r="F214">
+        <v>11.0006541</v>
+      </c>
+      <c r="G214">
+        <v>76.048735600000001</v>
+      </c>
+      <c r="H214">
+        <v>53</v>
+      </c>
+      <c r="I214">
+        <v>73</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215">
+        <v>41026048</v>
+      </c>
+      <c r="C215" t="s">
+        <v>76</v>
+      </c>
+      <c r="D215" t="s">
+        <v>77</v>
+      </c>
+      <c r="E215" t="s">
+        <v>67</v>
+      </c>
+      <c r="F215">
+        <v>10.885839300000001</v>
+      </c>
+      <c r="G215">
+        <v>76.073627500000001</v>
+      </c>
+      <c r="H215">
+        <v>57</v>
+      </c>
+      <c r="I215">
+        <v>97</v>
+      </c>
+      <c r="J215">
+        <v>53</v>
+      </c>
+      <c r="K215">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>270</v>
+      </c>
+      <c r="B216">
+        <v>41072515</v>
+      </c>
+      <c r="C216" t="s">
+        <v>78</v>
+      </c>
+      <c r="D216" t="s">
+        <v>79</v>
+      </c>
+      <c r="E216" t="s">
+        <v>67</v>
+      </c>
+      <c r="F216">
+        <v>10.896596499999999</v>
+      </c>
+      <c r="G216">
+        <v>75.892742299999995</v>
+      </c>
+      <c r="H216">
+        <v>85</v>
+      </c>
+      <c r="I216">
+        <v>57</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>270</v>
+      </c>
+      <c r="B217">
+        <v>41002036</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>67</v>
+      </c>
+      <c r="F217">
+        <v>10.943455200000001</v>
+      </c>
+      <c r="G217">
+        <v>75.9388991</v>
+      </c>
+      <c r="H217">
+        <v>71</v>
+      </c>
+      <c r="I217">
+        <v>53</v>
+      </c>
+      <c r="J217">
+        <v>72</v>
+      </c>
+      <c r="K217">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>270</v>
+      </c>
+      <c r="B218">
+        <v>41027813</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" t="s">
+        <v>82</v>
+      </c>
+      <c r="E218" t="s">
+        <v>67</v>
+      </c>
+      <c r="F218">
+        <v>10.918196200000001</v>
+      </c>
+      <c r="G218">
+        <v>75.925724799999998</v>
+      </c>
+      <c r="H218">
+        <v>80</v>
+      </c>
+      <c r="I218">
+        <v>112</v>
+      </c>
+      <c r="J218">
+        <v>92</v>
+      </c>
+      <c r="K218">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>270</v>
+      </c>
+      <c r="B219">
+        <v>41072571</v>
+      </c>
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D219" t="s">
+        <v>84</v>
+      </c>
+      <c r="E219" t="s">
+        <v>67</v>
+      </c>
+      <c r="F219">
+        <v>10.9079172</v>
+      </c>
+      <c r="G219">
+        <v>75.937062100000006</v>
+      </c>
+      <c r="H219">
+        <v>85</v>
+      </c>
+      <c r="I219">
+        <v>55</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>270</v>
+      </c>
+      <c r="B220">
+        <v>41030288</v>
+      </c>
+      <c r="C220" t="s">
+        <v>85</v>
+      </c>
+      <c r="D220" t="s">
+        <v>86</v>
+      </c>
+      <c r="E220" t="s">
+        <v>67</v>
+      </c>
+      <c r="F220">
+        <v>10.926020400000001</v>
+      </c>
+      <c r="G220">
+        <v>75.912469299999998</v>
+      </c>
+      <c r="H220">
+        <v>84</v>
+      </c>
+      <c r="I220">
+        <v>84</v>
+      </c>
+      <c r="J220">
+        <v>96</v>
+      </c>
+      <c r="K220">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>270</v>
+      </c>
+      <c r="B221">
+        <v>41028685</v>
+      </c>
+      <c r="C221" t="s">
+        <v>87</v>
+      </c>
+      <c r="D221" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" t="s">
+        <v>67</v>
+      </c>
+      <c r="F221">
+        <v>10.870997069735701</v>
+      </c>
+      <c r="G221">
+        <v>75.9596844223136</v>
+      </c>
+      <c r="H221">
+        <v>72</v>
+      </c>
+      <c r="I221">
+        <v>52</v>
+      </c>
+      <c r="J221">
+        <v>56</v>
+      </c>
+      <c r="K221">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222">
+        <v>41028384</v>
+      </c>
+      <c r="C222" t="s">
+        <v>88</v>
+      </c>
+      <c r="D222" t="s">
+        <v>89</v>
+      </c>
+      <c r="E222" t="s">
+        <v>67</v>
+      </c>
+      <c r="F222">
+        <v>10.9882831</v>
+      </c>
+      <c r="G222">
+        <v>75.906533199999998</v>
+      </c>
+      <c r="H222">
+        <v>91</v>
+      </c>
+      <c r="I222">
+        <v>63</v>
+      </c>
+      <c r="J222">
+        <v>109</v>
+      </c>
+      <c r="K222">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>270</v>
+      </c>
+      <c r="B223">
+        <v>41011423</v>
+      </c>
+      <c r="C223" t="s">
+        <v>90</v>
+      </c>
+      <c r="D223" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" t="s">
+        <v>67</v>
+      </c>
+      <c r="F223">
+        <v>10.8355228</v>
+      </c>
+      <c r="G223">
+        <v>75.989645199999998</v>
+      </c>
+      <c r="H223">
+        <v>142</v>
+      </c>
+      <c r="I223">
+        <v>162</v>
+      </c>
+      <c r="J223">
+        <v>102</v>
+      </c>
+      <c r="K223">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224">
+        <v>41009099</v>
+      </c>
+      <c r="C224" t="s">
+        <v>92</v>
+      </c>
+      <c r="D224" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" t="s">
+        <v>67</v>
+      </c>
+      <c r="F224">
+        <v>10.953940430306501</v>
+      </c>
+      <c r="G224">
+        <v>75.876230171024304</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225">
+        <v>41011494</v>
+      </c>
+      <c r="C225" t="s">
+        <v>93</v>
+      </c>
+      <c r="D225" t="s">
+        <v>94</v>
+      </c>
+      <c r="E225" t="s">
+        <v>67</v>
+      </c>
+      <c r="F225">
+        <v>10.974770400000001</v>
+      </c>
+      <c r="G225">
+        <v>76.007350400000007</v>
+      </c>
+      <c r="H225">
+        <v>76</v>
+      </c>
+      <c r="I225">
+        <v>88</v>
+      </c>
+      <c r="J225">
+        <v>48</v>
+      </c>
+      <c r="K225">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226">
+        <v>41002044</v>
+      </c>
+      <c r="C226" t="s">
+        <v>95</v>
+      </c>
+      <c r="D226" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" t="s">
+        <v>67</v>
+      </c>
+      <c r="F226">
+        <v>10.9342565</v>
+      </c>
+      <c r="G226">
+        <v>76.007100600000001</v>
+      </c>
+      <c r="H226">
+        <v>54</v>
+      </c>
+      <c r="I226">
+        <v>62</v>
+      </c>
+      <c r="J226">
+        <v>32</v>
+      </c>
+      <c r="K226">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227">
+        <v>41069662</v>
+      </c>
+      <c r="C227" t="s">
+        <v>97</v>
+      </c>
+      <c r="D227" t="s">
+        <v>98</v>
+      </c>
+      <c r="E227" t="s">
+        <v>67</v>
+      </c>
+      <c r="F227">
+        <v>11.170784472718299</v>
+      </c>
+      <c r="G227">
+        <v>75.913124200598006</v>
+      </c>
+      <c r="H227">
+        <v>100</v>
+      </c>
+      <c r="I227">
+        <v>90</v>
+      </c>
+      <c r="J227">
+        <v>90</v>
+      </c>
+      <c r="K227">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228">
+        <v>41006132</v>
+      </c>
+      <c r="C228" t="s">
+        <v>99</v>
+      </c>
+      <c r="D228" t="s">
+        <v>100</v>
+      </c>
+      <c r="E228" t="s">
+        <v>67</v>
+      </c>
+      <c r="F228">
+        <v>10.7810895</v>
+      </c>
+      <c r="G228">
+        <v>75.9243424</v>
+      </c>
+      <c r="H228">
+        <v>36</v>
+      </c>
+      <c r="I228">
+        <v>12</v>
+      </c>
+      <c r="J228">
+        <v>44</v>
+      </c>
+      <c r="K228">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>270</v>
+      </c>
+      <c r="B229">
+        <v>41025523</v>
+      </c>
+      <c r="C229" t="s">
+        <v>101</v>
+      </c>
+      <c r="D229" t="s">
+        <v>102</v>
+      </c>
+      <c r="E229" t="s">
+        <v>67</v>
+      </c>
+      <c r="F229">
+        <v>10.782209999999999</v>
+      </c>
+      <c r="G229">
+        <v>75.918440000000004</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>20</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>270</v>
+      </c>
+      <c r="B230">
+        <v>41000173</v>
+      </c>
+      <c r="C230" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" t="s">
+        <v>102</v>
+      </c>
+      <c r="E230" t="s">
+        <v>67</v>
+      </c>
+      <c r="F230">
+        <v>10.78102</v>
+      </c>
+      <c r="G230">
+        <v>75.924289999999999</v>
+      </c>
+      <c r="H230">
+        <v>66</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>60</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231">
+        <v>41011374</v>
+      </c>
+      <c r="C231" t="s">
+        <v>104</v>
+      </c>
+      <c r="D231" t="s">
+        <v>102</v>
+      </c>
+      <c r="E231" t="s">
+        <v>67</v>
+      </c>
+      <c r="F231">
+        <v>10.785546999999999</v>
+      </c>
+      <c r="G231">
+        <v>75.917064999999994</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>12</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232">
+        <v>41028728</v>
+      </c>
+      <c r="C232" t="s">
+        <v>105</v>
+      </c>
+      <c r="D232" t="s">
+        <v>30</v>
+      </c>
+      <c r="E232" t="s">
+        <v>67</v>
+      </c>
+      <c r="F232">
+        <v>11.048672399999999</v>
+      </c>
+      <c r="G232">
+        <v>75.858841499999997</v>
+      </c>
+      <c r="H232">
+        <v>21</v>
+      </c>
+      <c r="I232">
+        <v>49</v>
+      </c>
+      <c r="J232">
+        <v>24</v>
+      </c>
+      <c r="K232">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>270</v>
+      </c>
+      <c r="B233">
+        <v>41030464</v>
+      </c>
+      <c r="C233" t="s">
+        <v>106</v>
+      </c>
+      <c r="D233" t="s">
+        <v>107</v>
+      </c>
+      <c r="E233" t="s">
+        <v>67</v>
+      </c>
+      <c r="F233">
+        <v>11.103301099999999</v>
+      </c>
+      <c r="G233">
+        <v>75.924401399999994</v>
+      </c>
+      <c r="H233">
+        <v>70</v>
+      </c>
+      <c r="I233">
+        <v>56</v>
+      </c>
+      <c r="J233">
+        <v>76</v>
+      </c>
+      <c r="K233">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234">
+        <v>41028674</v>
+      </c>
+      <c r="C234" t="s">
+        <v>108</v>
+      </c>
+      <c r="D234" t="s">
+        <v>32</v>
+      </c>
+      <c r="E234" t="s">
+        <v>67</v>
+      </c>
+      <c r="F234">
+        <v>11.152270700000001</v>
+      </c>
+      <c r="G234">
+        <v>75.917749599999993</v>
+      </c>
+      <c r="H234">
+        <v>64</v>
+      </c>
+      <c r="I234">
+        <v>68</v>
+      </c>
+      <c r="J234">
+        <v>65</v>
+      </c>
+      <c r="K234">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>270</v>
+      </c>
+      <c r="B235">
+        <v>41030460</v>
+      </c>
+      <c r="C235" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" t="s">
+        <v>67</v>
+      </c>
+      <c r="F235">
+        <v>11.022599400000001</v>
+      </c>
+      <c r="G235">
+        <v>76.023566700000003</v>
+      </c>
+      <c r="H235">
+        <v>100</v>
+      </c>
+      <c r="I235">
+        <v>130</v>
+      </c>
+      <c r="J235">
+        <v>96</v>
+      </c>
+      <c r="K235">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>270</v>
+      </c>
+      <c r="B236">
+        <v>41011412</v>
+      </c>
+      <c r="C236" t="s">
+        <v>110</v>
+      </c>
+      <c r="D236" t="s">
+        <v>111</v>
+      </c>
+      <c r="E236" t="s">
+        <v>67</v>
+      </c>
+      <c r="F236">
+        <v>10.7715175</v>
+      </c>
+      <c r="G236">
+        <v>75.999381200000002</v>
+      </c>
+      <c r="H236">
+        <v>76</v>
+      </c>
+      <c r="I236">
+        <v>60</v>
+      </c>
+      <c r="J236">
+        <v>70</v>
+      </c>
+      <c r="K236">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>270</v>
+      </c>
+      <c r="B237">
+        <v>41070271</v>
+      </c>
+      <c r="C237" t="s">
+        <v>112</v>
+      </c>
+      <c r="D237" t="s">
+        <v>36</v>
+      </c>
+      <c r="E237" t="s">
+        <v>67</v>
+      </c>
+      <c r="F237">
+        <v>10.866842399999999</v>
+      </c>
+      <c r="G237">
+        <v>76.040696699999998</v>
+      </c>
+      <c r="H237">
+        <v>40</v>
+      </c>
+      <c r="I237">
+        <v>60</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>270</v>
+      </c>
+      <c r="B238">
+        <v>41028463</v>
+      </c>
+      <c r="C238" t="s">
+        <v>113</v>
+      </c>
+      <c r="D238" t="s">
+        <v>114</v>
+      </c>
+      <c r="E238" t="s">
+        <v>67</v>
+      </c>
+      <c r="F238">
+        <v>10.8438062</v>
+      </c>
+      <c r="G238">
+        <v>76.031948</v>
+      </c>
+      <c r="H238">
+        <v>84</v>
+      </c>
+      <c r="I238">
+        <v>84</v>
+      </c>
+      <c r="J238">
+        <v>80</v>
+      </c>
+      <c r="K238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>270</v>
+      </c>
+      <c r="B239">
+        <v>41011151</v>
+      </c>
+      <c r="C239" t="s">
+        <v>115</v>
+      </c>
+      <c r="D239" t="s">
+        <v>62</v>
+      </c>
+      <c r="E239" t="s">
+        <v>67</v>
+      </c>
+      <c r="F239">
+        <v>10.898442866795699</v>
+      </c>
+      <c r="G239">
+        <v>75.995558967887803</v>
+      </c>
+      <c r="H239">
+        <v>104</v>
+      </c>
+      <c r="I239">
+        <v>74</v>
+      </c>
+      <c r="J239">
+        <v>102</v>
+      </c>
+      <c r="K239">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240">
+        <v>41012307</v>
+      </c>
+      <c r="C240" t="s">
+        <v>116</v>
+      </c>
+      <c r="D240" t="s">
+        <v>117</v>
+      </c>
+      <c r="E240" t="s">
+        <v>67</v>
+      </c>
+      <c r="F240">
+        <v>11.081187</v>
+      </c>
+      <c r="G240">
+        <v>75.950810000000004</v>
+      </c>
+      <c r="H240">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>119</v>
+      </c>
+      <c r="J240">
+        <v>72</v>
+      </c>
+      <c r="K240">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>270</v>
+      </c>
+      <c r="B241">
+        <v>41028450</v>
+      </c>
+      <c r="C241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" t="s">
+        <v>119</v>
+      </c>
+      <c r="E241" t="s">
+        <v>67</v>
+      </c>
+      <c r="F241">
+        <v>10.999079999999999</v>
+      </c>
+      <c r="G241">
+        <v>75.991290000000006</v>
+      </c>
+      <c r="H241">
+        <v>65</v>
+      </c>
+      <c r="I241">
+        <v>151</v>
+      </c>
+      <c r="J241">
+        <v>60</v>
+      </c>
+      <c r="K241">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>270</v>
+      </c>
+      <c r="B242">
+        <v>41030308</v>
+      </c>
+      <c r="C242" t="s">
+        <v>120</v>
+      </c>
+      <c r="D242" t="s">
+        <v>60</v>
+      </c>
+      <c r="E242" t="s">
+        <v>67</v>
+      </c>
+      <c r="F242">
+        <v>11.15986</v>
+      </c>
+      <c r="G242">
+        <v>75.946535999999995</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>270</v>
+      </c>
+      <c r="B243">
+        <v>41029341</v>
+      </c>
+      <c r="C243" t="s">
+        <v>121</v>
+      </c>
+      <c r="D243" t="s">
+        <v>60</v>
+      </c>
+      <c r="E243" t="s">
+        <v>67</v>
+      </c>
+      <c r="F243">
+        <v>11.150885799999999</v>
+      </c>
+      <c r="G243">
+        <v>75.959119299999998</v>
+      </c>
+      <c r="H243">
+        <v>85</v>
+      </c>
+      <c r="I243">
+        <v>135</v>
+      </c>
+      <c r="J243">
+        <v>92</v>
+      </c>
+      <c r="K243">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244">
+        <v>41002023</v>
+      </c>
+      <c r="C244" t="s">
+        <v>122</v>
+      </c>
+      <c r="D244" t="s">
+        <v>60</v>
+      </c>
+      <c r="E244" t="s">
+        <v>67</v>
+      </c>
+      <c r="F244">
+        <v>11.1423633</v>
+      </c>
+      <c r="G244">
+        <v>75.970180999999997</v>
+      </c>
+      <c r="H244">
+        <v>115</v>
+      </c>
+      <c r="I244">
+        <v>185</v>
+      </c>
+      <c r="J244">
+        <v>100</v>
+      </c>
+      <c r="K244">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245">
+        <v>41012511</v>
+      </c>
+      <c r="C245" t="s">
+        <v>123</v>
+      </c>
+      <c r="D245" t="s">
+        <v>124</v>
+      </c>
+      <c r="E245" t="s">
+        <v>67</v>
+      </c>
+      <c r="F245">
+        <v>11.061546699999999</v>
+      </c>
+      <c r="G245">
+        <v>75.934800699999997</v>
+      </c>
+      <c r="H245">
+        <v>169</v>
+      </c>
+      <c r="I245">
+        <v>183</v>
+      </c>
+      <c r="J245">
+        <v>115</v>
+      </c>
+      <c r="K245">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246">
+        <v>41005475</v>
+      </c>
+      <c r="C246" t="s">
+        <v>125</v>
+      </c>
+      <c r="D246" t="s">
+        <v>126</v>
+      </c>
+      <c r="E246" t="s">
+        <v>67</v>
+      </c>
+      <c r="F246">
+        <v>11.147833500000001</v>
+      </c>
+      <c r="G246">
+        <v>75.978485199999994</v>
+      </c>
+      <c r="H246">
+        <v>63</v>
+      </c>
+      <c r="I246">
+        <v>55</v>
+      </c>
+      <c r="J246">
+        <v>56</v>
+      </c>
+      <c r="K246">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247">
+        <v>41002047</v>
+      </c>
+      <c r="C247" t="s">
+        <v>127</v>
+      </c>
+      <c r="D247" t="s">
+        <v>128</v>
+      </c>
+      <c r="E247" t="s">
+        <v>67</v>
+      </c>
+      <c r="F247">
+        <v>11.143891</v>
+      </c>
+      <c r="G247">
+        <v>75.895466999999996</v>
+      </c>
+      <c r="H247">
+        <v>68</v>
+      </c>
+      <c r="I247">
+        <v>44</v>
+      </c>
+      <c r="J247">
+        <v>61</v>
+      </c>
+      <c r="K247">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248">
+        <v>41028388</v>
+      </c>
+      <c r="C248" t="s">
+        <v>129</v>
+      </c>
+      <c r="D248" t="s">
+        <v>128</v>
+      </c>
+      <c r="E248" t="s">
+        <v>67</v>
+      </c>
+      <c r="F248">
+        <v>11.1561509174928</v>
+      </c>
+      <c r="G248">
+        <v>75.8910520580406</v>
+      </c>
+      <c r="H248">
+        <v>53</v>
+      </c>
+      <c r="I248">
+        <v>73</v>
+      </c>
+      <c r="J248">
+        <v>69</v>
+      </c>
+      <c r="K248">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249">
+        <v>41012299</v>
+      </c>
+      <c r="C249" t="s">
+        <v>130</v>
+      </c>
+      <c r="D249" t="s">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>67</v>
+      </c>
+      <c r="F249">
+        <v>11.0215473</v>
+      </c>
+      <c r="G249">
+        <v>75.948041099999998</v>
+      </c>
+      <c r="H249">
+        <v>36</v>
+      </c>
+      <c r="I249">
+        <v>36</v>
+      </c>
+      <c r="J249">
+        <v>32</v>
+      </c>
+      <c r="K249">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250">
+        <v>41011141</v>
+      </c>
+      <c r="C250" t="s">
+        <v>131</v>
+      </c>
+      <c r="D250" t="s">
+        <v>42</v>
+      </c>
+      <c r="E250" t="s">
+        <v>67</v>
+      </c>
+      <c r="F250">
+        <v>10.9962209448574</v>
+      </c>
+      <c r="G250">
+        <v>75.960989316999402</v>
+      </c>
+      <c r="H250">
+        <v>74</v>
+      </c>
+      <c r="I250">
+        <v>56</v>
+      </c>
+      <c r="J250">
+        <v>88</v>
+      </c>
+      <c r="K250">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251">
+        <v>41028149</v>
+      </c>
+      <c r="C251" t="s">
+        <v>132</v>
+      </c>
+      <c r="D251" t="s">
+        <v>48</v>
+      </c>
+      <c r="E251" t="s">
+        <v>67</v>
+      </c>
+      <c r="F251">
+        <v>10.8110471</v>
+      </c>
+      <c r="G251">
+        <v>76.010163399999996</v>
+      </c>
+      <c r="H251">
+        <v>105</v>
+      </c>
+      <c r="I251">
+        <v>99</v>
+      </c>
+      <c r="J251">
+        <v>88</v>
+      </c>
+      <c r="K251">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252">
+        <v>41012278</v>
+      </c>
+      <c r="C252" t="s">
+        <v>133</v>
+      </c>
+      <c r="D252" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" t="s">
+        <v>67</v>
+      </c>
+      <c r="F252">
+        <v>10.7722207</v>
+      </c>
+      <c r="G252">
+        <v>76.014538700000003</v>
+      </c>
+      <c r="H252">
+        <v>187</v>
+      </c>
+      <c r="I252">
+        <v>275</v>
+      </c>
+      <c r="J252">
+        <v>171</v>
+      </c>
+      <c r="K252">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>270</v>
+      </c>
+      <c r="B253">
+        <v>41076797</v>
+      </c>
+      <c r="C253" t="s">
+        <v>134</v>
+      </c>
+      <c r="D253" t="s">
+        <v>135</v>
+      </c>
+      <c r="E253" t="s">
+        <v>67</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254">
+        <v>41074486</v>
+      </c>
+      <c r="C254" t="s">
+        <v>136</v>
+      </c>
+      <c r="D254" t="s">
+        <v>135</v>
+      </c>
+      <c r="E254" t="s">
+        <v>67</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>270</v>
+      </c>
+      <c r="B255">
+        <v>41075133</v>
+      </c>
+      <c r="C255" t="s">
+        <v>137</v>
+      </c>
+      <c r="D255" t="s">
+        <v>50</v>
+      </c>
+      <c r="E255" t="s">
+        <v>67</v>
+      </c>
+      <c r="F255">
+        <v>11.079880599999999</v>
+      </c>
+      <c r="G255">
+        <v>75.858332599999997</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256">
+        <v>41006143</v>
+      </c>
+      <c r="C256" t="s">
+        <v>138</v>
+      </c>
+      <c r="D256" t="s">
+        <v>139</v>
+      </c>
+      <c r="E256" t="s">
+        <v>67</v>
+      </c>
+      <c r="F256">
+        <v>11.043075999999999</v>
+      </c>
+      <c r="G256">
+        <v>75.905059699999995</v>
+      </c>
+      <c r="H256">
+        <v>113</v>
+      </c>
+      <c r="I256">
+        <v>69</v>
+      </c>
+      <c r="J256">
+        <v>122</v>
+      </c>
+      <c r="K256">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>270</v>
+      </c>
+      <c r="B257">
+        <v>41075039</v>
+      </c>
+      <c r="C257" t="s">
+        <v>140</v>
+      </c>
+      <c r="D257" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" t="s">
+        <v>67</v>
+      </c>
+      <c r="F257">
+        <v>11.034220299999999</v>
+      </c>
+      <c r="G257">
+        <v>75.908116699999994</v>
+      </c>
+      <c r="H257">
+        <v>82</v>
+      </c>
+      <c r="I257">
+        <v>58</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>270</v>
+      </c>
+      <c r="B258">
+        <v>41064103</v>
+      </c>
+      <c r="C258" t="s">
+        <v>141</v>
+      </c>
+      <c r="D258" t="s">
+        <v>54</v>
+      </c>
+      <c r="E258" t="s">
+        <v>67</v>
+      </c>
+      <c r="F258">
+        <v>11.1031333</v>
+      </c>
+      <c r="G258">
+        <v>75.892461999999995</v>
+      </c>
+      <c r="H258">
+        <v>82</v>
+      </c>
+      <c r="I258">
+        <v>84</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>270</v>
+      </c>
+      <c r="B259">
+        <v>41012528</v>
+      </c>
+      <c r="C259" t="s">
+        <v>142</v>
+      </c>
+      <c r="D259" t="s">
+        <v>143</v>
+      </c>
+      <c r="E259" t="s">
+        <v>67</v>
+      </c>
+      <c r="F259">
+        <v>10.7327111</v>
+      </c>
+      <c r="G259">
+        <v>76.044030300000003</v>
+      </c>
+      <c r="H259">
+        <v>74</v>
+      </c>
+      <c r="I259">
+        <v>66</v>
+      </c>
+      <c r="J259">
+        <v>68</v>
+      </c>
+      <c r="K259">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>270</v>
+      </c>
+      <c r="B260">
+        <v>41075131</v>
+      </c>
+      <c r="C260" t="s">
+        <v>144</v>
+      </c>
+      <c r="D260" t="s">
+        <v>56</v>
+      </c>
+      <c r="E260" t="s">
+        <v>67</v>
+      </c>
+      <c r="F260">
+        <v>10.850793299999999</v>
+      </c>
+      <c r="G260">
+        <v>75.941027099999999</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>270</v>
+      </c>
+      <c r="B261">
+        <v>41006921</v>
+      </c>
+      <c r="C261" t="s">
+        <v>145</v>
+      </c>
+      <c r="D261" t="s">
+        <v>58</v>
+      </c>
+      <c r="E261" t="s">
+        <v>67</v>
+      </c>
+      <c r="F261">
+        <v>10.8548658380671</v>
+      </c>
+      <c r="G261">
+        <v>75.938937646431896</v>
+      </c>
+      <c r="H261">
+        <v>87</v>
+      </c>
+      <c r="I261">
+        <v>67</v>
+      </c>
+      <c r="J261">
+        <v>88</v>
+      </c>
+      <c r="K261">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262">
+        <v>41072529</v>
+      </c>
+      <c r="C262" t="s">
+        <v>146</v>
+      </c>
+      <c r="D262" t="s">
+        <v>58</v>
+      </c>
+      <c r="E262" t="s">
+        <v>67</v>
+      </c>
+      <c r="F262">
+        <v>10.8311191</v>
+      </c>
+      <c r="G262">
+        <v>75.948876299999995</v>
+      </c>
+      <c r="H262">
+        <v>73</v>
+      </c>
+      <c r="I262">
+        <v>39</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263">
+        <v>41075058</v>
+      </c>
+      <c r="C263" t="s">
+        <v>147</v>
+      </c>
+      <c r="D263" t="s">
+        <v>148</v>
+      </c>
+      <c r="E263" t="s">
+        <v>67</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264">
+        <v>41077874</v>
+      </c>
+      <c r="C264" t="s">
+        <v>149</v>
+      </c>
+      <c r="D264" t="s">
+        <v>150</v>
+      </c>
+      <c r="E264" t="s">
+        <v>67</v>
+      </c>
+      <c r="F264">
+        <v>11.1258707</v>
+      </c>
+      <c r="G264">
+        <v>75.897512300000002</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265">
+        <v>369496</v>
+      </c>
+      <c r="C265" t="s">
+        <v>151</v>
+      </c>
+      <c r="D265" t="s">
+        <v>66</v>
+      </c>
+      <c r="E265" t="s">
+        <v>152</v>
+      </c>
+      <c r="F265">
+        <v>10.928616699999999</v>
+      </c>
+      <c r="G265">
+        <v>76.026271530000002</v>
+      </c>
+      <c r="H265">
+        <v>84</v>
+      </c>
+      <c r="I265">
+        <v>92</v>
+      </c>
+      <c r="J265">
+        <v>43</v>
+      </c>
+      <c r="K265">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266">
+        <v>193180</v>
+      </c>
+      <c r="C266" t="s">
+        <v>153</v>
+      </c>
+      <c r="D266" t="s">
+        <v>66</v>
+      </c>
+      <c r="E266" t="s">
+        <v>152</v>
+      </c>
+      <c r="F266">
+        <v>10.925452</v>
+      </c>
+      <c r="G266">
+        <v>76.030546999999999</v>
+      </c>
+      <c r="H266">
+        <v>52</v>
+      </c>
+      <c r="I266">
+        <v>104</v>
+      </c>
+      <c r="J266">
+        <v>40</v>
+      </c>
+      <c r="K266">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267">
+        <v>365027</v>
+      </c>
+      <c r="C267" t="s">
+        <v>154</v>
+      </c>
+      <c r="D267" t="s">
+        <v>155</v>
+      </c>
+      <c r="E267" t="s">
+        <v>152</v>
+      </c>
+      <c r="F267">
+        <v>11.212027900000001</v>
+      </c>
+      <c r="G267">
+        <v>75.903762200000003</v>
+      </c>
+      <c r="H267">
+        <v>20</v>
+      </c>
+      <c r="I267">
+        <v>16</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>374994</v>
+      </c>
+      <c r="C268" t="s">
+        <v>156</v>
+      </c>
+      <c r="D268" t="s">
+        <v>16</v>
+      </c>
+      <c r="E268" t="s">
+        <v>152</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>198669</v>
+      </c>
+      <c r="C269" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" t="s">
+        <v>158</v>
+      </c>
+      <c r="E269" t="s">
+        <v>152</v>
+      </c>
+      <c r="F269">
+        <v>10.893371</v>
+      </c>
+      <c r="G269">
+        <v>76.074432000000002</v>
+      </c>
+      <c r="H269">
+        <v>44</v>
+      </c>
+      <c r="I269">
+        <v>100</v>
+      </c>
+      <c r="J269">
+        <v>40</v>
+      </c>
+      <c r="K269">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>288174</v>
+      </c>
+      <c r="C270" t="s">
+        <v>159</v>
+      </c>
+      <c r="D270" t="s">
+        <v>77</v>
+      </c>
+      <c r="E270" t="s">
+        <v>152</v>
+      </c>
+      <c r="F270">
+        <v>10.881123199999999</v>
+      </c>
+      <c r="G270">
+        <v>76.086412199999998</v>
+      </c>
+      <c r="H270">
+        <v>144</v>
+      </c>
+      <c r="I270">
+        <v>108</v>
+      </c>
+      <c r="J270">
+        <v>120</v>
+      </c>
+      <c r="K270">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>125132</v>
+      </c>
+      <c r="C271" t="s">
+        <v>160</v>
+      </c>
+      <c r="D271" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271" t="s">
+        <v>152</v>
+      </c>
+      <c r="F271">
+        <v>10.897987000000001</v>
+      </c>
+      <c r="G271">
+        <v>76.061267999999998</v>
+      </c>
+      <c r="H271">
+        <v>75</v>
+      </c>
+      <c r="I271">
+        <v>97</v>
+      </c>
+      <c r="J271">
+        <v>104</v>
+      </c>
+      <c r="K271">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>289385</v>
+      </c>
+      <c r="C272" t="s">
+        <v>161</v>
+      </c>
+      <c r="D272" t="s">
+        <v>79</v>
+      </c>
+      <c r="E272" t="s">
+        <v>152</v>
+      </c>
+      <c r="F272">
+        <v>10.875418</v>
+      </c>
+      <c r="G272">
+        <v>75.897812999999999</v>
+      </c>
+      <c r="H272">
+        <v>100</v>
+      </c>
+      <c r="I272">
+        <v>104</v>
+      </c>
+      <c r="J272">
+        <v>137</v>
+      </c>
+      <c r="K272">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <v>366596</v>
+      </c>
+      <c r="C273" t="s">
+        <v>162</v>
+      </c>
+      <c r="D273" t="s">
+        <v>79</v>
+      </c>
+      <c r="E273" t="s">
+        <v>152</v>
+      </c>
+      <c r="F273">
+        <v>10.892283900000001</v>
+      </c>
+      <c r="G273">
+        <v>75.913366199999999</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <v>367842</v>
+      </c>
+      <c r="C274" t="s">
+        <v>163</v>
+      </c>
+      <c r="D274" t="s">
+        <v>164</v>
+      </c>
+      <c r="E274" t="s">
+        <v>152</v>
+      </c>
+      <c r="F274">
+        <v>10.958012</v>
+      </c>
+      <c r="G274">
+        <v>75.946393</v>
+      </c>
+      <c r="H274">
+        <v>65</v>
+      </c>
+      <c r="I274">
+        <v>57</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>270</v>
+      </c>
+      <c r="B275">
+        <v>132413</v>
+      </c>
+      <c r="C275" t="s">
+        <v>165</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" t="s">
+        <v>152</v>
+      </c>
+      <c r="F275">
+        <v>10.95326</v>
+      </c>
+      <c r="G275">
+        <v>75.949827999999997</v>
+      </c>
+      <c r="H275">
+        <v>10</v>
+      </c>
+      <c r="I275">
+        <v>10</v>
+      </c>
+      <c r="J275">
+        <v>82</v>
+      </c>
+      <c r="K275">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>270</v>
+      </c>
+      <c r="B276">
+        <v>187714</v>
+      </c>
+      <c r="C276" t="s">
+        <v>166</v>
+      </c>
+      <c r="D276" t="s">
+        <v>82</v>
+      </c>
+      <c r="E276" t="s">
+        <v>152</v>
+      </c>
+      <c r="F276">
+        <v>10.931950000000001</v>
+      </c>
+      <c r="G276">
+        <v>75.933381999999995</v>
+      </c>
+      <c r="H276">
+        <v>68</v>
+      </c>
+      <c r="I276">
+        <v>100</v>
+      </c>
+      <c r="J276">
+        <v>68</v>
+      </c>
+      <c r="K276">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>270</v>
+      </c>
+      <c r="B277">
+        <v>289389</v>
+      </c>
+      <c r="C277" t="s">
+        <v>167</v>
+      </c>
+      <c r="D277" t="s">
+        <v>84</v>
+      </c>
+      <c r="E277" t="s">
+        <v>152</v>
+      </c>
+      <c r="F277">
+        <v>10.904375999999999</v>
+      </c>
+      <c r="G277">
+        <v>75.939109000000002</v>
+      </c>
+      <c r="H277">
+        <v>16</v>
+      </c>
+      <c r="I277">
+        <v>8</v>
+      </c>
+      <c r="J277">
+        <v>75</v>
+      </c>
+      <c r="K277">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>270</v>
+      </c>
+      <c r="B278">
+        <v>337736</v>
+      </c>
+      <c r="C278" t="s">
+        <v>168</v>
+      </c>
+      <c r="D278" t="s">
+        <v>84</v>
+      </c>
+      <c r="E278" t="s">
+        <v>152</v>
+      </c>
+      <c r="F278">
+        <v>10.91527</v>
+      </c>
+      <c r="G278">
+        <v>75.925920000000005</v>
+      </c>
+      <c r="H278">
+        <v>58</v>
+      </c>
+      <c r="I278">
+        <v>46</v>
+      </c>
+      <c r="J278">
+        <v>68</v>
+      </c>
+      <c r="K278">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>270</v>
+      </c>
+      <c r="B279">
+        <v>131235</v>
+      </c>
+      <c r="C279" t="s">
+        <v>169</v>
+      </c>
+      <c r="D279" t="s">
+        <v>86</v>
+      </c>
+      <c r="E279" t="s">
+        <v>152</v>
+      </c>
+      <c r="F279">
+        <v>10.926949</v>
+      </c>
+      <c r="G279">
+        <v>75.911624000000003</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>80</v>
+      </c>
+      <c r="K279">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>270</v>
+      </c>
+      <c r="B280">
+        <v>373070</v>
+      </c>
+      <c r="C280" t="s">
+        <v>170</v>
+      </c>
+      <c r="D280" t="s">
+        <v>86</v>
+      </c>
+      <c r="E280" t="s">
+        <v>152</v>
+      </c>
+      <c r="F280">
+        <v>10.923293805622601</v>
+      </c>
+      <c r="G280">
+        <v>75.913178550108199</v>
+      </c>
+      <c r="H280">
+        <v>108</v>
+      </c>
+      <c r="I280">
+        <v>81</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>270</v>
+      </c>
+      <c r="B281">
+        <v>187723</v>
+      </c>
+      <c r="C281" t="s">
+        <v>269</v>
+      </c>
+      <c r="D281" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" t="s">
+        <v>152</v>
+      </c>
+      <c r="F281">
+        <v>10.863213999999999</v>
+      </c>
+      <c r="G281">
+        <v>75.974677999999997</v>
+      </c>
+      <c r="H281">
+        <v>73</v>
+      </c>
+      <c r="I281">
+        <v>81</v>
+      </c>
+      <c r="J281">
+        <v>59</v>
+      </c>
+      <c r="K281">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>270</v>
+      </c>
+      <c r="B282">
+        <v>330792</v>
+      </c>
+      <c r="C282" t="s">
+        <v>171</v>
+      </c>
+      <c r="D282" t="s">
+        <v>89</v>
+      </c>
+      <c r="E282" t="s">
+        <v>152</v>
+      </c>
+      <c r="F282">
+        <v>10.991809</v>
+      </c>
+      <c r="G282">
+        <v>75.914709000000002</v>
+      </c>
+      <c r="H282">
+        <v>46</v>
+      </c>
+      <c r="I282">
+        <v>46</v>
+      </c>
+      <c r="J282">
+        <v>50</v>
+      </c>
+      <c r="K282">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>270</v>
+      </c>
+      <c r="B283">
+        <v>188272</v>
+      </c>
+      <c r="C283" t="s">
+        <v>172</v>
+      </c>
+      <c r="D283" t="s">
+        <v>26</v>
+      </c>
+      <c r="E283" t="s">
+        <v>152</v>
+      </c>
+      <c r="F283">
+        <v>10.980408000000001</v>
+      </c>
+      <c r="G283">
+        <v>75.876740999999996</v>
+      </c>
+      <c r="H283">
+        <v>107</v>
+      </c>
+      <c r="I283">
+        <v>317</v>
+      </c>
+      <c r="J283">
+        <v>99.5</v>
+      </c>
+      <c r="K283">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>270</v>
+      </c>
+      <c r="B284">
+        <v>124991</v>
+      </c>
+      <c r="C284" t="s">
+        <v>173</v>
+      </c>
+      <c r="D284" t="s">
+        <v>26</v>
+      </c>
+      <c r="E284" t="s">
+        <v>152</v>
+      </c>
+      <c r="F284">
+        <v>10.9842</v>
+      </c>
+      <c r="G284">
+        <v>75.875010000000003</v>
+      </c>
+      <c r="H284">
+        <v>52</v>
+      </c>
+      <c r="I284">
+        <v>32</v>
+      </c>
+      <c r="J284">
+        <v>50</v>
+      </c>
+      <c r="K284">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>270</v>
+      </c>
+      <c r="B285">
+        <v>355549</v>
+      </c>
+      <c r="C285" t="s">
+        <v>174</v>
+      </c>
+      <c r="D285" t="s">
+        <v>94</v>
+      </c>
+      <c r="E285" t="s">
+        <v>152</v>
+      </c>
+      <c r="F285">
+        <v>10.958543000000001</v>
+      </c>
+      <c r="G285">
+        <v>76.007593</v>
+      </c>
+      <c r="H285">
+        <v>69</v>
+      </c>
+      <c r="I285">
+        <v>97</v>
+      </c>
+      <c r="J285">
+        <v>45</v>
+      </c>
+      <c r="K285">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>270</v>
+      </c>
+      <c r="B286">
+        <v>348927</v>
+      </c>
+      <c r="C286" t="s">
+        <v>175</v>
+      </c>
+      <c r="D286" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" t="s">
+        <v>152</v>
+      </c>
+      <c r="F286">
+        <v>10.940877</v>
+      </c>
+      <c r="G286">
+        <v>75.999995999999996</v>
+      </c>
+      <c r="H286">
+        <v>51</v>
+      </c>
+      <c r="I286">
+        <v>77</v>
+      </c>
+      <c r="J286">
+        <v>72</v>
+      </c>
+      <c r="K286">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>270</v>
+      </c>
+      <c r="B287">
+        <v>337735</v>
+      </c>
+      <c r="C287" t="s">
+        <v>176</v>
+      </c>
+      <c r="D287" t="s">
+        <v>177</v>
+      </c>
+      <c r="E287" t="s">
+        <v>152</v>
+      </c>
+      <c r="F287">
+        <v>10.9026</v>
+      </c>
+      <c r="G287">
+        <v>76.090888000000007</v>
+      </c>
+      <c r="H287">
+        <v>95</v>
+      </c>
+      <c r="I287">
+        <v>105</v>
+      </c>
+      <c r="J287">
+        <v>85</v>
+      </c>
+      <c r="K287">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>270</v>
+      </c>
+      <c r="B288">
+        <v>125144</v>
+      </c>
+      <c r="C288" t="s">
+        <v>178</v>
+      </c>
+      <c r="D288" t="s">
+        <v>100</v>
+      </c>
+      <c r="E288" t="s">
+        <v>152</v>
+      </c>
+      <c r="F288">
+        <v>10.760971</v>
+      </c>
+      <c r="G288">
+        <v>75.927560999999997</v>
+      </c>
+      <c r="H288">
+        <v>93.5</v>
+      </c>
+      <c r="I288">
+        <v>60.5</v>
+      </c>
+      <c r="J288">
+        <v>99</v>
+      </c>
+      <c r="K288">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>270</v>
+      </c>
+      <c r="B289">
+        <v>299051</v>
+      </c>
+      <c r="C289" t="s">
+        <v>179</v>
+      </c>
+      <c r="D289" t="s">
+        <v>100</v>
+      </c>
+      <c r="E289" t="s">
+        <v>152</v>
+      </c>
+      <c r="F289">
+        <v>10.776616000000001</v>
+      </c>
+      <c r="G289">
+        <v>75.940180999999995</v>
+      </c>
+      <c r="H289">
+        <v>72</v>
+      </c>
+      <c r="I289">
+        <v>64</v>
+      </c>
+      <c r="J289">
+        <v>73</v>
+      </c>
+      <c r="K289">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>270</v>
+      </c>
+      <c r="B290">
+        <v>378694</v>
+      </c>
+      <c r="C290" t="s">
+        <v>180</v>
+      </c>
+      <c r="D290" t="s">
+        <v>100</v>
+      </c>
+      <c r="E290" t="s">
+        <v>152</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>270</v>
+      </c>
+      <c r="B291">
+        <v>125128</v>
+      </c>
+      <c r="C291" t="s">
+        <v>181</v>
+      </c>
+      <c r="D291" t="s">
+        <v>102</v>
+      </c>
+      <c r="E291" t="s">
+        <v>152</v>
+      </c>
+      <c r="F291">
+        <v>10.78205</v>
+      </c>
+      <c r="G291">
+        <v>75.935614000000001</v>
+      </c>
+      <c r="H291">
+        <v>85</v>
+      </c>
+      <c r="I291">
+        <v>65</v>
+      </c>
+      <c r="J291">
+        <v>68</v>
+      </c>
+      <c r="K291">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>270</v>
+      </c>
+      <c r="B292">
+        <v>272261</v>
+      </c>
+      <c r="C292" t="s">
+        <v>182</v>
+      </c>
+      <c r="D292" t="s">
+        <v>183</v>
+      </c>
+      <c r="E292" t="s">
+        <v>152</v>
+      </c>
+      <c r="F292">
+        <v>11.027646000000001</v>
+      </c>
+      <c r="G292">
+        <v>75.995407</v>
+      </c>
+      <c r="H292">
+        <v>54</v>
+      </c>
+      <c r="I292">
+        <v>50</v>
+      </c>
+      <c r="J292">
+        <v>54</v>
+      </c>
+      <c r="K292">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>270</v>
+      </c>
+      <c r="B293">
+        <v>185764</v>
+      </c>
+      <c r="C293" t="s">
+        <v>184</v>
+      </c>
+      <c r="D293" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" t="s">
+        <v>152</v>
+      </c>
+      <c r="F293">
+        <v>11.052979000000001</v>
+      </c>
+      <c r="G293">
+        <v>75.856067999999993</v>
+      </c>
+      <c r="H293">
+        <v>103</v>
+      </c>
+      <c r="I293">
+        <v>119</v>
+      </c>
+      <c r="J293">
+        <v>107</v>
+      </c>
+      <c r="K293">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>270</v>
+      </c>
+      <c r="B294">
+        <v>194760</v>
+      </c>
+      <c r="C294" t="s">
+        <v>185</v>
+      </c>
+      <c r="D294" t="s">
+        <v>107</v>
+      </c>
+      <c r="E294" t="s">
+        <v>152</v>
+      </c>
+      <c r="F294">
+        <v>11.113143000000001</v>
+      </c>
+      <c r="G294">
+        <v>75.947998999999996</v>
+      </c>
+      <c r="H294">
+        <v>61</v>
+      </c>
+      <c r="I294">
+        <v>73</v>
+      </c>
+      <c r="J294">
+        <v>84</v>
+      </c>
+      <c r="K294">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>270</v>
+      </c>
+      <c r="B295">
+        <v>269683</v>
+      </c>
+      <c r="C295" t="s">
+        <v>186</v>
+      </c>
+      <c r="D295" t="s">
+        <v>32</v>
+      </c>
+      <c r="E295" t="s">
+        <v>152</v>
+      </c>
+      <c r="F295">
+        <v>11.150142000000001</v>
+      </c>
+      <c r="G295">
+        <v>75.909779999999998</v>
+      </c>
+      <c r="H295">
+        <v>28</v>
+      </c>
+      <c r="I295">
+        <v>32</v>
+      </c>
+      <c r="J295">
+        <v>24</v>
+      </c>
+      <c r="K295">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>270</v>
+      </c>
+      <c r="B296">
+        <v>277552</v>
+      </c>
+      <c r="C296" t="s">
+        <v>187</v>
+      </c>
+      <c r="D296" t="s">
+        <v>188</v>
+      </c>
+      <c r="E296" t="s">
+        <v>152</v>
+      </c>
+      <c r="F296">
+        <v>11.0648</v>
+      </c>
+      <c r="G296">
+        <v>76.028599999999997</v>
+      </c>
+      <c r="H296">
+        <v>111</v>
+      </c>
+      <c r="I296">
+        <v>353</v>
+      </c>
+      <c r="J296">
+        <v>110</v>
+      </c>
+      <c r="K296">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>270</v>
+      </c>
+      <c r="B297">
+        <v>331474</v>
+      </c>
+      <c r="C297" t="s">
+        <v>189</v>
+      </c>
+      <c r="D297" t="s">
+        <v>111</v>
+      </c>
+      <c r="E297" t="s">
+        <v>152</v>
+      </c>
+      <c r="F297">
+        <v>10.759931999999999</v>
+      </c>
+      <c r="G297">
+        <v>75.972686999999993</v>
+      </c>
+      <c r="H297">
+        <v>108</v>
+      </c>
+      <c r="I297">
+        <v>70</v>
+      </c>
+      <c r="J297">
+        <v>101</v>
+      </c>
+      <c r="K297">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>270</v>
+      </c>
+      <c r="B298">
+        <v>333010</v>
+      </c>
+      <c r="C298" t="s">
+        <v>190</v>
+      </c>
+      <c r="D298" t="s">
+        <v>191</v>
+      </c>
+      <c r="E298" t="s">
+        <v>152</v>
+      </c>
+      <c r="F298">
+        <v>11.1775</v>
+      </c>
+      <c r="G298">
+        <v>76.001621900000004</v>
+      </c>
+      <c r="H298">
+        <v>62</v>
+      </c>
+      <c r="I298">
+        <v>40</v>
+      </c>
+      <c r="J298">
+        <v>60</v>
+      </c>
+      <c r="K298">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>270</v>
+      </c>
+      <c r="B299">
+        <v>353705</v>
+      </c>
+      <c r="C299" t="s">
+        <v>192</v>
+      </c>
+      <c r="D299" t="s">
+        <v>193</v>
+      </c>
+      <c r="E299" t="s">
+        <v>152</v>
+      </c>
+      <c r="F299">
+        <v>11.11675</v>
+      </c>
+      <c r="G299">
+        <v>75.939660000000003</v>
+      </c>
+      <c r="H299">
+        <v>25</v>
+      </c>
+      <c r="I299">
+        <v>37</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>270</v>
+      </c>
+      <c r="B300">
+        <v>371069</v>
+      </c>
+      <c r="C300" t="s">
+        <v>194</v>
+      </c>
+      <c r="D300" t="s">
+        <v>193</v>
+      </c>
+      <c r="E300" t="s">
+        <v>152</v>
+      </c>
+      <c r="F300">
+        <v>11.1294769</v>
+      </c>
+      <c r="G300">
+        <v>75.946753000000001</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>270</v>
+      </c>
+      <c r="B301">
+        <v>125209</v>
+      </c>
+      <c r="C301" t="s">
+        <v>195</v>
+      </c>
+      <c r="D301" t="s">
+        <v>36</v>
+      </c>
+      <c r="E301" t="s">
+        <v>152</v>
+      </c>
+      <c r="F301">
+        <v>10.863982999999999</v>
+      </c>
+      <c r="G301">
+        <v>76.038314999999997</v>
+      </c>
+      <c r="H301">
+        <v>58</v>
+      </c>
+      <c r="I301">
+        <v>94</v>
+      </c>
+      <c r="J301">
+        <v>58</v>
+      </c>
+      <c r="K301">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>270</v>
+      </c>
+      <c r="B302">
+        <v>194519</v>
+      </c>
+      <c r="C302" t="s">
+        <v>196</v>
+      </c>
+      <c r="D302" t="s">
+        <v>114</v>
+      </c>
+      <c r="E302" t="s">
+        <v>152</v>
+      </c>
+      <c r="F302">
+        <v>10.844916</v>
+      </c>
+      <c r="G302">
+        <v>76.031943999999996</v>
+      </c>
+      <c r="H302">
+        <v>54</v>
+      </c>
+      <c r="I302">
+        <v>94</v>
+      </c>
+      <c r="J302">
+        <v>51</v>
+      </c>
+      <c r="K302">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>270</v>
+      </c>
+      <c r="B303">
+        <v>271724</v>
+      </c>
+      <c r="C303" t="s">
+        <v>197</v>
+      </c>
+      <c r="D303" t="s">
+        <v>62</v>
+      </c>
+      <c r="E303" t="s">
+        <v>152</v>
+      </c>
+      <c r="F303">
+        <v>10.92512</v>
+      </c>
+      <c r="G303">
+        <v>75.997416000000001</v>
+      </c>
+      <c r="H303">
+        <v>105</v>
+      </c>
+      <c r="I303">
+        <v>191</v>
+      </c>
+      <c r="J303">
+        <v>103</v>
+      </c>
+      <c r="K303">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>270</v>
+      </c>
+      <c r="B304">
+        <v>352152</v>
+      </c>
+      <c r="C304" t="s">
+        <v>198</v>
+      </c>
+      <c r="D304" t="s">
+        <v>117</v>
+      </c>
+      <c r="E304" t="s">
+        <v>152</v>
+      </c>
+      <c r="F304">
+        <v>11.093055485159001</v>
+      </c>
+      <c r="G304">
+        <v>75.954399274354401</v>
+      </c>
+      <c r="H304">
+        <v>104</v>
+      </c>
+      <c r="I304">
+        <v>128</v>
+      </c>
+      <c r="J304">
+        <v>92</v>
+      </c>
+      <c r="K304">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>270</v>
+      </c>
+      <c r="B305">
+        <v>125236</v>
+      </c>
+      <c r="C305" t="s">
+        <v>199</v>
+      </c>
+      <c r="D305" t="s">
+        <v>38</v>
+      </c>
+      <c r="E305" t="s">
+        <v>152</v>
+      </c>
+      <c r="F305">
+        <v>11.009416999999999</v>
+      </c>
+      <c r="G305">
+        <v>76.014228000000003</v>
+      </c>
+      <c r="H305">
+        <v>110</v>
+      </c>
+      <c r="I305">
+        <v>145</v>
+      </c>
+      <c r="J305">
+        <v>115</v>
+      </c>
+      <c r="K305">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>270</v>
+      </c>
+      <c r="B306">
+        <v>187703</v>
+      </c>
+      <c r="C306" t="s">
+        <v>200</v>
+      </c>
+      <c r="D306" t="s">
+        <v>119</v>
+      </c>
+      <c r="E306" t="s">
+        <v>152</v>
+      </c>
+      <c r="F306">
+        <v>10.99159</v>
+      </c>
+      <c r="G306">
+        <v>75.993118999999993</v>
+      </c>
+      <c r="H306">
+        <v>140</v>
+      </c>
+      <c r="I306">
+        <v>162</v>
+      </c>
+      <c r="J306">
+        <v>126</v>
+      </c>
+      <c r="K306">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>270</v>
+      </c>
+      <c r="B307">
+        <v>208096</v>
+      </c>
+      <c r="C307" t="s">
+        <v>201</v>
+      </c>
+      <c r="D307" t="s">
+        <v>202</v>
+      </c>
+      <c r="E307" t="s">
+        <v>152</v>
+      </c>
+      <c r="F307">
+        <v>11.154782000000001</v>
+      </c>
+      <c r="G307">
+        <v>75.958197999999996</v>
+      </c>
+      <c r="H307">
+        <v>59</v>
+      </c>
+      <c r="I307">
+        <v>169</v>
+      </c>
+      <c r="J307">
+        <v>50</v>
+      </c>
+      <c r="K307">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>270</v>
+      </c>
+      <c r="B308">
+        <v>188647</v>
+      </c>
+      <c r="C308" t="s">
+        <v>203</v>
+      </c>
+      <c r="D308" t="s">
+        <v>60</v>
+      </c>
+      <c r="E308" t="s">
+        <v>152</v>
+      </c>
+      <c r="F308">
+        <v>11.14287</v>
+      </c>
+      <c r="G308">
+        <v>75.968549999999993</v>
+      </c>
+      <c r="H308">
+        <v>81.045000000000002</v>
+      </c>
+      <c r="I308">
+        <v>109.69199999999999</v>
+      </c>
+      <c r="J308">
+        <v>71.858000000000004</v>
+      </c>
+      <c r="K308">
+        <v>92.123999999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>270</v>
+      </c>
+      <c r="B309">
+        <v>378662</v>
+      </c>
+      <c r="C309" t="s">
+        <v>204</v>
+      </c>
+      <c r="D309" t="s">
+        <v>205</v>
+      </c>
+      <c r="E309" t="s">
+        <v>152</v>
+      </c>
+      <c r="F309">
+        <v>11.006486000000001</v>
+      </c>
+      <c r="G309">
+        <v>75.911833999999999</v>
+      </c>
+      <c r="H309">
+        <v>26</v>
+      </c>
+      <c r="I309">
+        <v>18</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>270</v>
+      </c>
+      <c r="B310">
+        <v>339065</v>
+      </c>
+      <c r="C310" t="s">
+        <v>206</v>
+      </c>
+      <c r="D310" t="s">
+        <v>207</v>
+      </c>
+      <c r="E310" t="s">
+        <v>152</v>
+      </c>
+      <c r="F310">
+        <v>11.099242</v>
+      </c>
+      <c r="G310">
+        <v>75.974777000000003</v>
+      </c>
+      <c r="H310">
+        <v>16</v>
+      </c>
+      <c r="I310">
+        <v>106</v>
+      </c>
+      <c r="J310">
+        <v>5</v>
+      </c>
+      <c r="K310">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>270</v>
+      </c>
+      <c r="B311">
+        <v>328648</v>
+      </c>
+      <c r="C311" t="s">
+        <v>208</v>
+      </c>
+      <c r="D311" t="s">
+        <v>209</v>
+      </c>
+      <c r="E311" t="s">
+        <v>152</v>
+      </c>
+      <c r="F311">
+        <v>10.8971</v>
+      </c>
+      <c r="G311">
+        <v>76.044290000000004</v>
+      </c>
+      <c r="H311">
+        <v>48</v>
+      </c>
+      <c r="I311">
+        <v>48</v>
+      </c>
+      <c r="J311">
+        <v>46</v>
+      </c>
+      <c r="K311">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>270</v>
+      </c>
+      <c r="B312">
+        <v>366391</v>
+      </c>
+      <c r="C312" t="s">
+        <v>210</v>
+      </c>
+      <c r="D312" t="s">
+        <v>40</v>
+      </c>
+      <c r="E312" t="s">
+        <v>152</v>
+      </c>
+      <c r="F312">
+        <v>10.96218</v>
+      </c>
+      <c r="G312">
+        <v>75.975920000000002</v>
+      </c>
+      <c r="H312">
+        <v>64</v>
+      </c>
+      <c r="I312">
+        <v>62</v>
+      </c>
+      <c r="J312">
+        <v>56</v>
+      </c>
+      <c r="K312">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>270</v>
+      </c>
+      <c r="B313">
+        <v>374991</v>
+      </c>
+      <c r="C313" t="s">
+        <v>211</v>
+      </c>
+      <c r="D313" t="s">
+        <v>40</v>
+      </c>
+      <c r="E313" t="s">
+        <v>152</v>
+      </c>
+      <c r="F313">
+        <v>10.9366296</v>
+      </c>
+      <c r="G313">
+        <v>75.993870299999998</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>270</v>
+      </c>
+      <c r="B314">
+        <v>352145</v>
+      </c>
+      <c r="C314" t="s">
+        <v>212</v>
+      </c>
+      <c r="D314" t="s">
+        <v>126</v>
+      </c>
+      <c r="E314" t="s">
+        <v>152</v>
+      </c>
+      <c r="F314">
+        <v>11.1474457</v>
+      </c>
+      <c r="G314">
+        <v>75.977087100000006</v>
+      </c>
+      <c r="H314">
+        <v>82</v>
+      </c>
+      <c r="I314">
+        <v>82</v>
+      </c>
+      <c r="J314">
+        <v>80</v>
+      </c>
+      <c r="K314">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>270</v>
+      </c>
+      <c r="B315">
+        <v>175973</v>
+      </c>
+      <c r="C315" t="s">
+        <v>213</v>
+      </c>
+      <c r="D315" t="s">
+        <v>128</v>
+      </c>
+      <c r="E315" t="s">
+        <v>152</v>
+      </c>
+      <c r="F315">
+        <v>11.151203000000001</v>
+      </c>
+      <c r="G315">
+        <v>75.894127999999995</v>
+      </c>
+      <c r="H315">
+        <v>106</v>
+      </c>
+      <c r="I315">
+        <v>126</v>
+      </c>
+      <c r="J315">
+        <v>120</v>
+      </c>
+      <c r="K315">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>270</v>
+      </c>
+      <c r="B316">
+        <v>372984</v>
+      </c>
+      <c r="C316" t="s">
+        <v>214</v>
+      </c>
+      <c r="D316" t="s">
+        <v>128</v>
+      </c>
+      <c r="E316" t="s">
+        <v>152</v>
+      </c>
+      <c r="F316">
+        <v>11.1434824</v>
+      </c>
+      <c r="G316">
+        <v>75.893587999999994</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>270</v>
+      </c>
+      <c r="B317">
+        <v>125004</v>
+      </c>
+      <c r="C317" t="s">
+        <v>215</v>
+      </c>
+      <c r="D317" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" t="s">
+        <v>152</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>270</v>
+      </c>
+      <c r="B318">
+        <v>125203</v>
+      </c>
+      <c r="C318" t="s">
+        <v>216</v>
+      </c>
+      <c r="D318" t="s">
+        <v>46</v>
+      </c>
+      <c r="E318" t="s">
+        <v>152</v>
+      </c>
+      <c r="F318">
+        <v>10.723029</v>
+      </c>
+      <c r="G318">
+        <v>75.976825000000005</v>
+      </c>
+      <c r="H318">
+        <v>91.5</v>
+      </c>
+      <c r="I318">
+        <v>44.5</v>
+      </c>
+      <c r="J318">
+        <v>76.5</v>
+      </c>
+      <c r="K318">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>270</v>
+      </c>
+      <c r="B319">
+        <v>187712</v>
+      </c>
+      <c r="C319" t="s">
+        <v>217</v>
+      </c>
+      <c r="D319" t="s">
+        <v>48</v>
+      </c>
+      <c r="E319" t="s">
+        <v>152</v>
+      </c>
+      <c r="F319">
+        <v>10.796931000000001</v>
+      </c>
+      <c r="G319">
+        <v>76.006488000000004</v>
+      </c>
+      <c r="H319">
+        <v>105</v>
+      </c>
+      <c r="I319">
+        <v>101</v>
+      </c>
+      <c r="J319">
+        <v>88</v>
+      </c>
+      <c r="K319">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>270</v>
+      </c>
+      <c r="B320">
+        <v>193920</v>
+      </c>
+      <c r="C320" t="s">
+        <v>218</v>
+      </c>
+      <c r="D320" t="s">
+        <v>135</v>
+      </c>
+      <c r="E320" t="s">
+        <v>152</v>
+      </c>
+      <c r="F320">
+        <v>10.787483</v>
+      </c>
+      <c r="G320">
+        <v>75.977958000000001</v>
+      </c>
+      <c r="H320">
+        <v>102</v>
+      </c>
+      <c r="I320">
+        <v>66</v>
+      </c>
+      <c r="J320">
+        <v>81</v>
+      </c>
+      <c r="K320">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>270</v>
+      </c>
+      <c r="B321">
+        <v>208616</v>
+      </c>
+      <c r="C321" t="s">
+        <v>219</v>
+      </c>
+      <c r="D321" t="s">
+        <v>135</v>
+      </c>
+      <c r="E321" t="s">
+        <v>152</v>
+      </c>
+      <c r="F321">
+        <v>10.784466999999999</v>
+      </c>
+      <c r="G321">
+        <v>76.014109000000005</v>
+      </c>
+      <c r="H321">
+        <v>96</v>
+      </c>
+      <c r="I321">
+        <v>84</v>
+      </c>
+      <c r="J321">
+        <v>92</v>
+      </c>
+      <c r="K321">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>270</v>
+      </c>
+      <c r="B322">
+        <v>216348</v>
+      </c>
+      <c r="C322" t="s">
+        <v>220</v>
+      </c>
+      <c r="D322" t="s">
+        <v>221</v>
+      </c>
+      <c r="E322" t="s">
+        <v>152</v>
+      </c>
+      <c r="F322">
+        <v>11.026891000000001</v>
+      </c>
+      <c r="G322">
+        <v>75.867500000000007</v>
+      </c>
+      <c r="H322">
+        <v>64</v>
+      </c>
+      <c r="I322">
+        <v>134</v>
+      </c>
+      <c r="J322">
+        <v>69</v>
+      </c>
+      <c r="K322">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>270</v>
+      </c>
+      <c r="B323">
+        <v>352137</v>
+      </c>
+      <c r="C323" t="s">
+        <v>222</v>
+      </c>
+      <c r="D323" t="s">
+        <v>50</v>
+      </c>
+      <c r="E323" t="s">
+        <v>152</v>
+      </c>
+      <c r="F323">
+        <v>11.093467</v>
+      </c>
+      <c r="G323">
+        <v>75.881241000000003</v>
+      </c>
+      <c r="H323">
+        <v>84</v>
+      </c>
+      <c r="I323">
+        <v>72</v>
+      </c>
+      <c r="J323">
+        <v>86</v>
+      </c>
+      <c r="K323">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>270</v>
+      </c>
+      <c r="B324">
+        <v>289393</v>
+      </c>
+      <c r="C324" t="s">
+        <v>223</v>
+      </c>
+      <c r="D324" t="s">
+        <v>224</v>
+      </c>
+      <c r="E324" t="s">
+        <v>152</v>
+      </c>
+      <c r="F324">
+        <v>11.064705999999999</v>
+      </c>
+      <c r="G324">
+        <v>75.987302999999997</v>
+      </c>
+      <c r="H324">
+        <v>65</v>
+      </c>
+      <c r="I324">
+        <v>80</v>
+      </c>
+      <c r="J324">
+        <v>55</v>
+      </c>
+      <c r="K324">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>270</v>
+      </c>
+      <c r="B325">
+        <v>252629</v>
+      </c>
+      <c r="C325" t="s">
+        <v>225</v>
+      </c>
+      <c r="D325" t="s">
+        <v>52</v>
+      </c>
+      <c r="E325" t="s">
+        <v>152</v>
+      </c>
+      <c r="F325">
+        <v>11.048079100000001</v>
+      </c>
+      <c r="G325">
+        <v>75.9094099</v>
+      </c>
+      <c r="H325">
+        <v>84</v>
+      </c>
+      <c r="I325">
+        <v>72</v>
+      </c>
+      <c r="J325">
+        <v>80</v>
+      </c>
+      <c r="K325">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>270</v>
+      </c>
+      <c r="B326">
+        <v>367798</v>
+      </c>
+      <c r="C326" t="s">
+        <v>226</v>
+      </c>
+      <c r="D326" t="s">
+        <v>227</v>
+      </c>
+      <c r="E326" t="s">
+        <v>152</v>
+      </c>
+      <c r="F326">
+        <v>10.932758</v>
+      </c>
+      <c r="G326">
+        <v>75.922769299999999</v>
+      </c>
+      <c r="H326">
+        <v>4</v>
+      </c>
+      <c r="I326">
+        <v>8</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>270</v>
+      </c>
+      <c r="B327">
+        <v>124986</v>
+      </c>
+      <c r="C327" t="s">
+        <v>228</v>
+      </c>
+      <c r="D327" t="s">
+        <v>54</v>
+      </c>
+      <c r="E327" t="s">
+        <v>152</v>
+      </c>
+      <c r="F327">
+        <v>11.111501000000001</v>
+      </c>
+      <c r="G327">
+        <v>75.889905999999996</v>
+      </c>
+      <c r="H327">
+        <v>68</v>
+      </c>
+      <c r="I327">
+        <v>74</v>
+      </c>
+      <c r="J327">
+        <v>60</v>
+      </c>
+      <c r="K327">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>270</v>
+      </c>
+      <c r="B328">
+        <v>335802</v>
+      </c>
+      <c r="C328" t="s">
+        <v>229</v>
+      </c>
+      <c r="D328" t="s">
+        <v>143</v>
+      </c>
+      <c r="E328" t="s">
+        <v>152</v>
+      </c>
+      <c r="F328">
+        <v>10.732849999999999</v>
+      </c>
+      <c r="G328">
+        <v>76.039441999999994</v>
+      </c>
+      <c r="H328">
+        <v>118</v>
+      </c>
+      <c r="I328">
+        <v>100</v>
+      </c>
+      <c r="J328">
+        <v>100</v>
+      </c>
+      <c r="K328">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>270</v>
+      </c>
+      <c r="B329">
+        <v>187704</v>
+      </c>
+      <c r="C329" t="s">
+        <v>230</v>
+      </c>
+      <c r="D329" t="s">
+        <v>143</v>
+      </c>
+      <c r="E329" t="s">
+        <v>152</v>
+      </c>
+      <c r="F329">
+        <v>10.733841</v>
+      </c>
+      <c r="G329">
+        <v>76.031171999999998</v>
+      </c>
+      <c r="H329">
+        <v>159</v>
+      </c>
+      <c r="I329">
+        <v>115</v>
+      </c>
+      <c r="J329">
+        <v>151</v>
+      </c>
+      <c r="K329">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>270</v>
+      </c>
+      <c r="B330">
+        <v>125235</v>
+      </c>
+      <c r="C330" t="s">
+        <v>231</v>
+      </c>
+      <c r="D330" t="s">
+        <v>56</v>
+      </c>
+      <c r="E330" t="s">
+        <v>152</v>
+      </c>
+      <c r="F330">
+        <v>10.902279</v>
+      </c>
+      <c r="G330">
+        <v>75.923327</v>
+      </c>
+      <c r="H330">
+        <v>107</v>
+      </c>
+      <c r="I330">
+        <v>110</v>
+      </c>
+      <c r="J330">
+        <v>117</v>
+      </c>
+      <c r="K330">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>270</v>
+      </c>
+      <c r="B331">
+        <v>188253</v>
+      </c>
+      <c r="C331" t="s">
+        <v>232</v>
+      </c>
+      <c r="D331" t="s">
+        <v>56</v>
+      </c>
+      <c r="E331" t="s">
+        <v>152</v>
+      </c>
+      <c r="F331">
+        <v>10.889744</v>
+      </c>
+      <c r="G331">
+        <v>75.929782000000003</v>
+      </c>
+      <c r="H331">
+        <v>119</v>
+      </c>
+      <c r="I331">
+        <v>107</v>
+      </c>
+      <c r="J331">
+        <v>123</v>
+      </c>
+      <c r="K331">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>270</v>
+      </c>
+      <c r="B332">
+        <v>188258</v>
+      </c>
+      <c r="C332" t="s">
+        <v>233</v>
+      </c>
+      <c r="D332" t="s">
+        <v>234</v>
+      </c>
+      <c r="E332" t="s">
+        <v>152</v>
+      </c>
+      <c r="F332">
+        <v>11.178269</v>
+      </c>
+      <c r="G332">
+        <v>75.894277000000002</v>
+      </c>
+      <c r="H332">
+        <v>48</v>
+      </c>
+      <c r="I332">
+        <v>60</v>
+      </c>
+      <c r="J332">
+        <v>51</v>
+      </c>
+      <c r="K332">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>270</v>
+      </c>
+      <c r="B333">
+        <v>346531</v>
+      </c>
+      <c r="C333" t="s">
+        <v>235</v>
+      </c>
+      <c r="D333" t="s">
+        <v>58</v>
+      </c>
+      <c r="E333" t="s">
+        <v>152</v>
+      </c>
+      <c r="F333">
+        <v>10.8320507</v>
+      </c>
+      <c r="G333">
+        <v>75.948288500000004</v>
+      </c>
+      <c r="H333">
+        <v>80</v>
+      </c>
+      <c r="I333">
+        <v>57</v>
+      </c>
+      <c r="J333">
+        <v>150</v>
+      </c>
+      <c r="K333">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>270</v>
+      </c>
+      <c r="B334">
+        <v>380970</v>
+      </c>
+      <c r="C334" t="s">
+        <v>236</v>
+      </c>
+      <c r="D334" t="s">
+        <v>237</v>
+      </c>
+      <c r="E334" t="s">
+        <v>152</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>270</v>
+      </c>
+      <c r="B335">
+        <v>381831</v>
+      </c>
+      <c r="C335" t="s">
+        <v>238</v>
+      </c>
+      <c r="D335" t="s">
+        <v>91</v>
+      </c>
+      <c r="E335" t="s">
+        <v>152</v>
+      </c>
+      <c r="F335">
+        <v>10.835945300000001</v>
+      </c>
+      <c r="G335">
+        <v>75.989429200000004</v>
+      </c>
+      <c r="H335">
+        <v>4</v>
+      </c>
+      <c r="I335">
+        <v>8</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>270</v>
+      </c>
+      <c r="B336">
+        <v>52021446</v>
+      </c>
+      <c r="C336" t="s">
+        <v>239</v>
+      </c>
+      <c r="D336" t="s">
+        <v>240</v>
+      </c>
+      <c r="E336" t="s">
+        <v>241</v>
+      </c>
+      <c r="F336">
+        <v>10.952202700000001</v>
+      </c>
+      <c r="G336">
+        <v>75.916499000000002</v>
+      </c>
+      <c r="H336">
+        <v>94</v>
+      </c>
+      <c r="I336">
+        <v>90</v>
+      </c>
+      <c r="J336">
+        <v>70</v>
+      </c>
+      <c r="K336">
+        <v>60.265095729013254</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>270</v>
+      </c>
+      <c r="B337">
+        <v>52021106</v>
+      </c>
+      <c r="C337" t="s">
+        <v>242</v>
+      </c>
+      <c r="D337" t="s">
+        <v>177</v>
+      </c>
+      <c r="E337" t="s">
+        <v>241</v>
+      </c>
+      <c r="F337">
+        <v>10.9025921</v>
+      </c>
+      <c r="G337">
+        <v>76.089573900000005</v>
+      </c>
+      <c r="H337">
+        <v>90</v>
+      </c>
+      <c r="I337">
+        <v>90</v>
+      </c>
+      <c r="J337">
+        <v>75</v>
+      </c>
+      <c r="K337">
+        <v>80.353460972017686</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>270</v>
+      </c>
+      <c r="B338">
+        <v>52020226</v>
+      </c>
+      <c r="C338" t="s">
+        <v>243</v>
+      </c>
+      <c r="D338" t="s">
+        <v>191</v>
+      </c>
+      <c r="E338" t="s">
+        <v>241</v>
+      </c>
+      <c r="F338">
+        <v>11.1865141</v>
+      </c>
+      <c r="G338">
+        <v>75.967778800000005</v>
+      </c>
+      <c r="H338">
+        <v>90</v>
+      </c>
+      <c r="I338">
+        <v>90</v>
+      </c>
+      <c r="J338">
+        <v>75</v>
+      </c>
+      <c r="K338">
+        <v>80.353460972017686</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>270</v>
+      </c>
+      <c r="B339">
+        <v>52021226</v>
+      </c>
+      <c r="C339" t="s">
+        <v>244</v>
+      </c>
+      <c r="D339" t="s">
+        <v>62</v>
+      </c>
+      <c r="E339" t="s">
+        <v>241</v>
+      </c>
+      <c r="H339">
+        <v>80</v>
+      </c>
+      <c r="I339">
+        <v>105</v>
+      </c>
+      <c r="J339">
+        <v>70</v>
+      </c>
+      <c r="K339">
+        <v>87.384388807069215</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>270</v>
+      </c>
+      <c r="B340">
+        <v>52017906</v>
+      </c>
+      <c r="C340" t="s">
+        <v>245</v>
+      </c>
+      <c r="D340" t="s">
+        <v>117</v>
+      </c>
+      <c r="E340" t="s">
+        <v>241</v>
+      </c>
+      <c r="F340">
+        <v>11.108909499999999</v>
+      </c>
+      <c r="G340">
+        <v>75.956636200000005</v>
+      </c>
+      <c r="H340">
+        <v>88</v>
+      </c>
+      <c r="I340">
+        <v>94</v>
+      </c>
+      <c r="J340">
+        <v>80</v>
+      </c>
+      <c r="K340">
+        <v>80.353460972017686</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>270</v>
+      </c>
+      <c r="B341">
+        <v>52025746</v>
+      </c>
+      <c r="C341" t="s">
+        <v>246</v>
+      </c>
+      <c r="D341" t="s">
+        <v>50</v>
+      </c>
+      <c r="E341" t="s">
+        <v>241</v>
+      </c>
+      <c r="F341">
+        <v>11.0815488</v>
+      </c>
+      <c r="G341">
+        <v>75.860961500000002</v>
+      </c>
+      <c r="H341">
+        <v>28</v>
+      </c>
+      <c r="I341">
+        <v>54</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>270</v>
+      </c>
+      <c r="B342">
+        <v>52015446</v>
+      </c>
+      <c r="C342" t="s">
+        <v>247</v>
+      </c>
+      <c r="D342" t="s">
+        <v>234</v>
+      </c>
+      <c r="E342" t="s">
+        <v>241</v>
+      </c>
+      <c r="F342">
+        <v>11.179561</v>
+      </c>
+      <c r="G342">
+        <v>75.889318799999998</v>
+      </c>
+      <c r="H342">
+        <v>160</v>
+      </c>
+      <c r="I342">
+        <v>150</v>
+      </c>
+      <c r="J342">
+        <v>142.5</v>
+      </c>
+      <c r="K342">
+        <v>136.09867452135495</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>270</v>
+      </c>
+      <c r="B343">
+        <v>25816909337</v>
+      </c>
+      <c r="C343" t="s">
+        <v>74</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" t="s">
+        <v>248</v>
+      </c>
+      <c r="F343">
+        <v>11.0490485</v>
+      </c>
+      <c r="G343">
+        <v>75.955744100000004</v>
+      </c>
+      <c r="H343">
+        <v>80</v>
+      </c>
+      <c r="I343">
+        <v>98</v>
+      </c>
+      <c r="J343">
+        <v>80</v>
+      </c>
+      <c r="K343">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>270</v>
+      </c>
+      <c r="B344">
+        <v>51814369</v>
+      </c>
+      <c r="C344" t="s">
+        <v>249</v>
+      </c>
+      <c r="D344" t="s">
+        <v>72</v>
+      </c>
+      <c r="E344" t="s">
+        <v>248</v>
+      </c>
+      <c r="H344">
+        <v>95</v>
+      </c>
+      <c r="I344">
+        <v>76</v>
+      </c>
+      <c r="J344">
+        <v>95</v>
+      </c>
+      <c r="K344">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>270</v>
+      </c>
+      <c r="B345">
+        <v>25816910010</v>
+      </c>
+      <c r="C345" t="s">
+        <v>250</v>
+      </c>
+      <c r="D345" t="s">
+        <v>75</v>
+      </c>
+      <c r="E345" t="s">
+        <v>248</v>
+      </c>
+      <c r="H345">
+        <v>80</v>
+      </c>
+      <c r="I345">
+        <v>94</v>
+      </c>
+      <c r="J345">
+        <v>70</v>
+      </c>
+      <c r="K345">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>270</v>
+      </c>
+      <c r="B346">
+        <v>51818206</v>
+      </c>
+      <c r="C346" t="s">
+        <v>251</v>
+      </c>
+      <c r="D346" t="s">
+        <v>20</v>
+      </c>
+      <c r="E346" t="s">
+        <v>248</v>
+      </c>
+      <c r="F346">
+        <v>10.974520200000001</v>
+      </c>
+      <c r="G346">
+        <v>75.966958000000005</v>
+      </c>
+      <c r="H346">
+        <v>55</v>
+      </c>
+      <c r="I346">
+        <v>63</v>
+      </c>
+      <c r="J346">
+        <v>55</v>
+      </c>
+      <c r="K346">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>270</v>
+      </c>
+      <c r="B347">
+        <v>51810126</v>
+      </c>
+      <c r="C347" t="s">
+        <v>252</v>
+      </c>
+      <c r="D347" t="s">
+        <v>89</v>
+      </c>
+      <c r="E347" t="s">
+        <v>248</v>
+      </c>
+      <c r="F347">
+        <v>10.999390999999999</v>
+      </c>
+      <c r="G347">
+        <v>75.921136000000004</v>
+      </c>
+      <c r="H347">
+        <v>62</v>
+      </c>
+      <c r="I347">
+        <v>62</v>
+      </c>
+      <c r="J347">
+        <v>65</v>
+      </c>
+      <c r="K347">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>270</v>
+      </c>
+      <c r="B348">
+        <v>51816866</v>
+      </c>
+      <c r="C348" t="s">
+        <v>253</v>
+      </c>
+      <c r="D348" t="s">
+        <v>94</v>
+      </c>
+      <c r="E348" t="s">
+        <v>248</v>
+      </c>
+      <c r="H348">
+        <v>35</v>
+      </c>
+      <c r="I348">
+        <v>50</v>
+      </c>
+      <c r="J348">
+        <v>35</v>
+      </c>
+      <c r="K348">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>270</v>
+      </c>
+      <c r="B349">
+        <v>40617</v>
+      </c>
+      <c r="C349" t="s">
+        <v>254</v>
+      </c>
+      <c r="D349" t="s">
+        <v>98</v>
+      </c>
+      <c r="E349" t="s">
+        <v>248</v>
+      </c>
+      <c r="H349">
+        <v>65</v>
+      </c>
+      <c r="I349">
+        <v>92</v>
+      </c>
+      <c r="J349">
+        <v>70</v>
+      </c>
+      <c r="K349">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>270</v>
+      </c>
+      <c r="B350">
+        <v>35408</v>
+      </c>
+      <c r="C350" t="s">
+        <v>255</v>
+      </c>
+      <c r="D350" t="s">
+        <v>100</v>
+      </c>
+      <c r="E350" t="s">
+        <v>248</v>
+      </c>
+      <c r="H350">
+        <v>70</v>
+      </c>
+      <c r="I350">
+        <v>80</v>
+      </c>
+      <c r="J350">
+        <v>40</v>
+      </c>
+      <c r="K350">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>270</v>
+      </c>
+      <c r="B351">
+        <v>16481</v>
+      </c>
+      <c r="C351" t="s">
+        <v>256</v>
+      </c>
+      <c r="D351" t="s">
+        <v>30</v>
+      </c>
+      <c r="E351" t="s">
+        <v>248</v>
+      </c>
+      <c r="F351">
+        <v>11.0704677</v>
+      </c>
+      <c r="G351">
+        <v>75.853777899999997</v>
+      </c>
+      <c r="H351">
+        <v>65</v>
+      </c>
+      <c r="I351">
+        <v>62</v>
+      </c>
+      <c r="J351">
+        <v>35</v>
+      </c>
+      <c r="K351">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>270</v>
+      </c>
+      <c r="B352">
+        <v>37561</v>
+      </c>
+      <c r="C352" t="s">
+        <v>257</v>
+      </c>
+      <c r="D352" t="s">
+        <v>34</v>
+      </c>
+      <c r="E352" t="s">
+        <v>248</v>
+      </c>
+      <c r="H352">
+        <v>85</v>
+      </c>
+      <c r="I352">
+        <v>102</v>
+      </c>
+      <c r="J352">
+        <v>85</v>
+      </c>
+      <c r="K352">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>270</v>
+      </c>
+      <c r="B353">
+        <v>41049</v>
+      </c>
+      <c r="C353" t="s">
+        <v>258</v>
+      </c>
+      <c r="D353" t="s">
+        <v>193</v>
+      </c>
+      <c r="E353" t="s">
+        <v>248</v>
+      </c>
+      <c r="F353">
+        <v>11.1313592</v>
+      </c>
+      <c r="G353">
+        <v>75.944015100000001</v>
+      </c>
+      <c r="H353">
+        <v>62</v>
+      </c>
+      <c r="I353">
+        <v>64</v>
+      </c>
+      <c r="J353">
+        <v>55</v>
+      </c>
+      <c r="K353">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>270</v>
+      </c>
+      <c r="B354">
+        <v>51820546</v>
+      </c>
+      <c r="C354" t="s">
+        <v>259</v>
+      </c>
+      <c r="D354" t="s">
+        <v>221</v>
+      </c>
+      <c r="E354" t="s">
+        <v>248</v>
+      </c>
+      <c r="F354">
+        <v>11.0092005</v>
+      </c>
+      <c r="G354">
+        <v>75.872094300000001</v>
+      </c>
+      <c r="H354">
+        <v>47</v>
+      </c>
+      <c r="I354">
+        <v>48</v>
+      </c>
+      <c r="J354">
+        <v>47</v>
+      </c>
+      <c r="K354">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>270</v>
+      </c>
+      <c r="B355">
+        <v>41970</v>
+      </c>
+      <c r="C355" t="s">
+        <v>260</v>
+      </c>
+      <c r="D355" t="s">
+        <v>54</v>
+      </c>
+      <c r="E355" t="s">
+        <v>248</v>
+      </c>
+      <c r="H355">
+        <v>58</v>
+      </c>
+      <c r="I355">
+        <v>62</v>
+      </c>
+      <c r="J355">
+        <v>45</v>
+      </c>
+      <c r="K355">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>270</v>
+      </c>
+      <c r="B356">
+        <v>35407</v>
+      </c>
+      <c r="C356" t="s">
+        <v>261</v>
+      </c>
+      <c r="D356" t="s">
+        <v>143</v>
+      </c>
+      <c r="E356" t="s">
+        <v>248</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>270</v>
+      </c>
+      <c r="B357">
+        <v>51810366</v>
+      </c>
+      <c r="C357" t="s">
+        <v>262</v>
+      </c>
+      <c r="D357" t="s">
+        <v>234</v>
+      </c>
+      <c r="E357" t="s">
+        <v>248</v>
+      </c>
+      <c r="F357">
+        <v>11.1806553</v>
+      </c>
+      <c r="G357">
+        <v>75.885784999999998</v>
+      </c>
+      <c r="H357">
+        <v>82</v>
+      </c>
+      <c r="I357">
+        <v>70</v>
+      </c>
+      <c r="J357">
+        <v>80</v>
+      </c>
+      <c r="K357">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>270</v>
+      </c>
+      <c r="B358">
+        <v>51815506</v>
+      </c>
+      <c r="C358" t="s">
+        <v>263</v>
+      </c>
+      <c r="D358" t="s">
+        <v>58</v>
+      </c>
+      <c r="E358" t="s">
+        <v>248</v>
+      </c>
+      <c r="F358">
+        <v>10.838447</v>
+      </c>
+      <c r="G358">
+        <v>75.946537000000006</v>
+      </c>
+      <c r="H358">
+        <v>75</v>
+      </c>
+      <c r="I358">
+        <v>70</v>
+      </c>
+      <c r="J358">
+        <v>75</v>
+      </c>
+      <c r="K358">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>270</v>
+      </c>
+      <c r="B359">
+        <v>35405</v>
+      </c>
+      <c r="C359" t="s">
+        <v>264</v>
+      </c>
+      <c r="D359" t="s">
+        <v>18</v>
+      </c>
+      <c r="E359" t="s">
+        <v>265</v>
+      </c>
+      <c r="F359">
+        <v>10.892344100000001</v>
+      </c>
+      <c r="G359">
+        <v>76.065624099999994</v>
+      </c>
+      <c r="H359">
+        <v>110</v>
+      </c>
+      <c r="I359">
+        <v>143</v>
+      </c>
+      <c r="J359">
+        <v>110</v>
+      </c>
+      <c r="K359">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>270</v>
+      </c>
+      <c r="B360">
+        <v>16463</v>
+      </c>
+      <c r="C360" t="s">
+        <v>266</v>
+      </c>
+      <c r="D360" t="s">
+        <v>82</v>
+      </c>
+      <c r="E360" t="s">
+        <v>265</v>
+      </c>
+      <c r="F360">
+        <v>10.926572500000001</v>
+      </c>
+      <c r="G360">
+        <v>75.931044299999996</v>
+      </c>
+      <c r="H360">
+        <v>105</v>
+      </c>
+      <c r="I360">
+        <v>130</v>
+      </c>
+      <c r="J360">
+        <v>110</v>
+      </c>
+      <c r="K360">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>270</v>
+      </c>
+      <c r="B361">
+        <v>51917907</v>
+      </c>
+      <c r="C361" t="s">
+        <v>267</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E361" t="s">
+        <v>265</v>
+      </c>
+      <c r="F361">
+        <v>11.0604608</v>
+      </c>
+      <c r="G361">
+        <v>75.854848700000005</v>
+      </c>
+      <c r="H361">
+        <v>173</v>
+      </c>
+      <c r="I361">
+        <v>180</v>
+      </c>
+      <c r="J361">
+        <v>180</v>
+      </c>
+      <c r="K361">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>270</v>
+      </c>
+      <c r="B362">
+        <v>16477</v>
+      </c>
+      <c r="C362" t="s">
+        <v>201</v>
+      </c>
+      <c r="D362" t="s">
+        <v>119</v>
+      </c>
+      <c r="E362" t="s">
+        <v>265</v>
+      </c>
+      <c r="F362">
+        <v>10.997152</v>
+      </c>
+      <c r="G362">
+        <v>75.987773000000004</v>
+      </c>
+      <c r="H362">
+        <v>150</v>
+      </c>
+      <c r="I362">
+        <v>220</v>
+      </c>
+      <c r="J362">
+        <v>180</v>
+      </c>
+      <c r="K362">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>270</v>
+      </c>
+      <c r="B363">
+        <v>35406</v>
+      </c>
+      <c r="C363" t="s">
+        <v>268</v>
+      </c>
+      <c r="D363" t="s">
+        <v>48</v>
+      </c>
+      <c r="E363" t="s">
+        <v>265</v>
+      </c>
+      <c r="F363">
+        <v>10.790346599999999</v>
+      </c>
+      <c r="G363">
+        <v>76.008724000000001</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/stations.xlsx
+++ b/public/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandalalsivadas/Desktop/fuel-map-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{734D2764-77AE-7646-8010-FE8B3193CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7C8F46E-A908-944A-930C-F5F2752B76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
   </bookViews>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}">
   <dimension ref="A1:K906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
+      <selection activeCell="G803" sqref="G803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23134,12 +23134,6 @@
       <c r="E622" t="s">
         <v>67</v>
       </c>
-      <c r="F622">
-        <v>10.850793299999999</v>
-      </c>
-      <c r="G622">
-        <v>75.941027099999999</v>
-      </c>
       <c r="H622">
         <v>0</v>
       </c>
@@ -29362,10 +29356,10 @@
         <v>67</v>
       </c>
       <c r="F803">
-        <v>10.850793299999999</v>
+        <v>10.8866792</v>
       </c>
       <c r="G803">
-        <v>75.941027099999999</v>
+        <v>75.930557399999998</v>
       </c>
       <c r="H803">
         <v>0</v>

--- a/public/stations.xlsx
+++ b/public/stations.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandalalsivadas/Desktop/fuel-map-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7C8F46E-A908-944A-930C-F5F2752B76BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90D209EA-C578-4145-A726-5E6826426D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stations!$A$1:$K$906</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1721,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}">
   <dimension ref="A1:K906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="G803" sqref="G803"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4454,10 +4457,10 @@
         <v>67</v>
       </c>
       <c r="F79">
-        <v>10.850793299999999</v>
+        <v>10.8866792</v>
       </c>
       <c r="G79">
-        <v>75.941027099999999</v>
+        <v>75.930557399999998</v>
       </c>
       <c r="H79">
         <v>50</v>
@@ -4558,6 +4561,12 @@
       <c r="E82" t="s">
         <v>67</v>
       </c>
+      <c r="F82">
+        <v>11.076765099999999</v>
+      </c>
+      <c r="G82">
+        <v>75.902970600000003</v>
+      </c>
       <c r="H82">
         <v>0</v>
       </c>
@@ -4727,6 +4736,12 @@
       <c r="E87" t="s">
         <v>152</v>
       </c>
+      <c r="F87">
+        <v>11.109537899999999</v>
+      </c>
+      <c r="G87">
+        <v>75.836205399999997</v>
+      </c>
       <c r="H87">
         <v>0</v>
       </c>
@@ -7188,6 +7203,12 @@
       <c r="E158" t="s">
         <v>239</v>
       </c>
+      <c r="F158">
+        <v>10.929333400000001</v>
+      </c>
+      <c r="G158">
+        <v>75.998249999999999</v>
+      </c>
       <c r="H158">
         <v>85</v>
       </c>
@@ -7514,6 +7535,12 @@
       <c r="E168" t="s">
         <v>246</v>
       </c>
+      <c r="F168">
+        <v>11.167624099999999</v>
+      </c>
+      <c r="G168">
+        <v>75.930183900000003</v>
+      </c>
       <c r="H168">
         <v>65</v>
       </c>
@@ -7706,6 +7733,12 @@
       <c r="E174" t="s">
         <v>246</v>
       </c>
+      <c r="F174">
+        <v>11.102840499999999</v>
+      </c>
+      <c r="G174">
+        <v>75.893086999999994</v>
+      </c>
       <c r="H174">
         <v>58</v>
       </c>
@@ -10681,10 +10714,10 @@
         <v>67</v>
       </c>
       <c r="F260">
-        <v>10.850793299999999</v>
+        <v>10.8866792</v>
       </c>
       <c r="G260">
-        <v>75.941027099999999</v>
+        <v>75.930557399999998</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -10785,6 +10818,12 @@
       <c r="E263" t="s">
         <v>67</v>
       </c>
+      <c r="F263">
+        <v>11.076765099999999</v>
+      </c>
+      <c r="G263">
+        <v>75.902970600000003</v>
+      </c>
       <c r="H263">
         <v>4</v>
       </c>
@@ -13415,6 +13454,12 @@
       <c r="E339" t="s">
         <v>239</v>
       </c>
+      <c r="F339">
+        <v>10.929334000000001</v>
+      </c>
+      <c r="G339">
+        <v>75.998249999999999</v>
+      </c>
       <c r="H339">
         <v>80</v>
       </c>
@@ -13741,6 +13786,12 @@
       <c r="E349" t="s">
         <v>246</v>
       </c>
+      <c r="F349">
+        <v>11.167624099999999</v>
+      </c>
+      <c r="G349">
+        <v>75.930183900000003</v>
+      </c>
       <c r="H349">
         <v>65</v>
       </c>
@@ -13933,6 +13984,12 @@
       <c r="E355" t="s">
         <v>246</v>
       </c>
+      <c r="F355">
+        <v>11.102840499999999</v>
+      </c>
+      <c r="G355">
+        <v>75.893086999999994</v>
+      </c>
       <c r="H355">
         <v>58</v>
       </c>
@@ -16908,10 +16965,10 @@
         <v>67</v>
       </c>
       <c r="F441">
-        <v>10.850793299999999</v>
+        <v>10.8866792</v>
       </c>
       <c r="G441">
-        <v>75.941027099999999</v>
+        <v>75.930557399999998</v>
       </c>
       <c r="H441">
         <v>4</v>
@@ -17012,6 +17069,12 @@
       <c r="E444" t="s">
         <v>67</v>
       </c>
+      <c r="F444">
+        <v>11.076765099999999</v>
+      </c>
+      <c r="G444">
+        <v>75.902970600000003</v>
+      </c>
       <c r="H444">
         <v>0</v>
       </c>
@@ -17181,6 +17244,12 @@
       <c r="E449" t="s">
         <v>152</v>
       </c>
+      <c r="F449">
+        <v>11.109537899999999</v>
+      </c>
+      <c r="G449">
+        <v>75.836205399999997</v>
+      </c>
       <c r="H449">
         <v>0</v>
       </c>
@@ -19473,6 +19542,12 @@
       <c r="E515" t="s">
         <v>152</v>
       </c>
+      <c r="F515">
+        <v>10.9898428</v>
+      </c>
+      <c r="G515">
+        <v>76.021480299999993</v>
+      </c>
       <c r="H515">
         <v>0</v>
       </c>
@@ -19642,6 +19717,12 @@
       <c r="E520" t="s">
         <v>239</v>
       </c>
+      <c r="F520">
+        <v>10.929334000000001</v>
+      </c>
+      <c r="G520">
+        <v>75.998249999999999</v>
+      </c>
       <c r="H520">
         <v>80</v>
       </c>
@@ -19968,6 +20049,12 @@
       <c r="E530" t="s">
         <v>246</v>
       </c>
+      <c r="F530">
+        <v>11.167624099999999</v>
+      </c>
+      <c r="G530">
+        <v>75.930183900000003</v>
+      </c>
       <c r="H530">
         <v>75</v>
       </c>
@@ -20160,6 +20247,12 @@
       <c r="E536" t="s">
         <v>246</v>
       </c>
+      <c r="F536">
+        <v>11.102840499999999</v>
+      </c>
+      <c r="G536">
+        <v>75.893086999999994</v>
+      </c>
       <c r="H536">
         <v>60</v>
       </c>
@@ -23134,6 +23227,12 @@
       <c r="E622" t="s">
         <v>67</v>
       </c>
+      <c r="F622">
+        <v>10.8866792</v>
+      </c>
+      <c r="G622">
+        <v>75.930557399999998</v>
+      </c>
       <c r="H622">
         <v>0</v>
       </c>
@@ -23233,6 +23332,12 @@
       <c r="E625" t="s">
         <v>67</v>
       </c>
+      <c r="F625">
+        <v>11.076765099999999</v>
+      </c>
+      <c r="G625">
+        <v>75.902970600000003</v>
+      </c>
       <c r="H625">
         <v>0</v>
       </c>
@@ -25863,6 +25968,12 @@
       <c r="E701" t="s">
         <v>239</v>
       </c>
+      <c r="F701">
+        <v>10.929334000000001</v>
+      </c>
+      <c r="G701">
+        <v>75.998249999999999</v>
+      </c>
       <c r="H701">
         <v>80</v>
       </c>
@@ -26189,6 +26300,12 @@
       <c r="E711" t="s">
         <v>246</v>
       </c>
+      <c r="F711">
+        <v>11.167624099999999</v>
+      </c>
+      <c r="G711">
+        <v>75.930183900000003</v>
+      </c>
       <c r="H711">
         <v>85</v>
       </c>
@@ -26381,6 +26498,12 @@
       <c r="E717" t="s">
         <v>246</v>
       </c>
+      <c r="F717">
+        <v>11.1028425</v>
+      </c>
+      <c r="G717">
+        <v>75.893092300000006</v>
+      </c>
       <c r="H717">
         <v>65</v>
       </c>
@@ -29460,6 +29583,12 @@
       <c r="E806" t="s">
         <v>67</v>
       </c>
+      <c r="F806">
+        <v>11.076765099999999</v>
+      </c>
+      <c r="G806">
+        <v>75.902970600000003</v>
+      </c>
       <c r="H806">
         <v>0</v>
       </c>
@@ -29629,6 +29758,12 @@
       <c r="E811" t="s">
         <v>152</v>
       </c>
+      <c r="F811">
+        <v>11.1076353</v>
+      </c>
+      <c r="G811">
+        <v>75.837608799999998</v>
+      </c>
       <c r="H811">
         <v>0</v>
       </c>
@@ -31921,6 +32056,12 @@
       <c r="E877" t="s">
         <v>152</v>
       </c>
+      <c r="F877">
+        <v>10.9897204</v>
+      </c>
+      <c r="G877">
+        <v>76.021091400000003</v>
+      </c>
       <c r="H877">
         <v>0</v>
       </c>
@@ -32090,6 +32231,12 @@
       <c r="E882" t="s">
         <v>239</v>
       </c>
+      <c r="F882">
+        <v>10.929334000000001</v>
+      </c>
+      <c r="G882">
+        <v>75.998249999999999</v>
+      </c>
       <c r="H882">
         <v>90</v>
       </c>
@@ -32416,6 +32563,12 @@
       <c r="E892" t="s">
         <v>246</v>
       </c>
+      <c r="F892">
+        <v>11.167624099999999</v>
+      </c>
+      <c r="G892">
+        <v>75.930183900000003</v>
+      </c>
       <c r="H892">
         <v>80</v>
       </c>
@@ -32509,6 +32662,12 @@
       <c r="E895" t="s">
         <v>246</v>
       </c>
+      <c r="F895">
+        <v>11.1295825</v>
+      </c>
+      <c r="G895">
+        <v>76.004713499999994</v>
+      </c>
       <c r="H895">
         <v>115</v>
       </c>
@@ -32607,6 +32766,12 @@
       </c>
       <c r="E898" t="s">
         <v>246</v>
+      </c>
+      <c r="F898">
+        <v>11.102840499999999</v>
+      </c>
+      <c r="G898">
+        <v>75.893086999999994</v>
       </c>
       <c r="H898">
         <v>64</v>

--- a/public/stations.xlsx
+++ b/public/stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandalalsivadas/Desktop/fuel-map-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90D209EA-C578-4145-A726-5E6826426D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{532755DF-597A-0C40-9FB8-4596B3E85BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{9B18C86B-D065-B647-9723-E654086DE872}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stations!$A$1:$K$906</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stations!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}">
   <dimension ref="A1:K906"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6376,10 +6376,10 @@
         <v>152</v>
       </c>
       <c r="F134">
-        <v>11.151203000000001</v>
+        <v>11.1512227</v>
       </c>
       <c r="G134">
-        <v>75.894127999999995</v>
+        <v>75.894251100000005</v>
       </c>
       <c r="H134">
         <v>124</v>
@@ -6411,10 +6411,10 @@
         <v>152</v>
       </c>
       <c r="F135">
-        <v>11.1434824</v>
+        <v>11.141628499999999</v>
       </c>
       <c r="G135">
-        <v>75.893587999999994</v>
+        <v>75.894988699999999</v>
       </c>
       <c r="H135">
         <v>8</v>
@@ -33061,6 +33061,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{A922ACBE-E6A4-AA40-AF75-BFC5BA62349F}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>